--- a/cuenta_real.xlsx
+++ b/cuenta_real.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guille\Downloads\PocketOptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07D5C83-BB59-416F-8CF9-363ABF816A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC44F791-E793-4B49-AFB6-25FFB0AD9765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="6000" windowWidth="22260" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="360" windowWidth="22260" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="29">
   <si>
     <t>S300</t>
   </si>
@@ -116,13 +116,19 @@
   <si>
     <t>close</t>
   </si>
+  <si>
+    <t>12.:22</t>
+  </si>
+  <si>
+    <t>AUDCAD OTC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -151,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -160,13 +166,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,16 +506,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L371"/>
+  <dimension ref="A1:L375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="K375" sqref="K375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11" style="5"/>
     <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="7"/>
     <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -513,7 +525,7 @@
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
@@ -522,13 +534,13 @@
       <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H1" t="s">
@@ -560,16 +572,16 @@
       <c r="D2" s="3">
         <v>45977</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="8">
         <v>0.822662037037037</v>
       </c>
       <c r="F2" s="3">
         <v>45977</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="8">
         <v>0.82335648148148144</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>1.1265400000000001</v>
       </c>
       <c r="I2" s="1">
@@ -599,13 +611,13 @@
       <c r="D3" s="3">
         <v>45977</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
         <v>0.82394675925925931</v>
       </c>
       <c r="F3" s="3">
         <v>45977</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="8">
         <v>0.82464120370370375</v>
       </c>
       <c r="H3" s="1">
@@ -638,13 +650,13 @@
       <c r="D4" s="3">
         <v>45977</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="8">
         <v>0.98386574074074074</v>
       </c>
       <c r="F4" s="3">
         <v>45977</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="8">
         <v>0.98733796296296295</v>
       </c>
       <c r="H4" s="1">
@@ -677,13 +689,13 @@
       <c r="D5" s="3">
         <v>45977</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
         <v>0.98760416666666662</v>
       </c>
       <c r="F5" s="3">
         <v>45977</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="8">
         <v>0.99454861111111115</v>
       </c>
       <c r="H5" s="1">
@@ -716,13 +728,13 @@
       <c r="D6" s="3">
         <v>45977</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="8">
         <v>0.99483796296296301</v>
       </c>
       <c r="F6" s="3">
         <v>45978</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="8">
         <v>1.7824074074074075E-3</v>
       </c>
       <c r="H6" s="1">
@@ -755,13 +767,13 @@
       <c r="D7" s="3">
         <v>45978</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="8">
         <v>1.1018518518518518E-2</v>
       </c>
       <c r="F7" s="3">
         <v>45978</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="8">
         <v>1.4490740740740742E-2</v>
       </c>
       <c r="H7" s="1">
@@ -794,13 +806,13 @@
       <c r="D8" s="3">
         <v>45978</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="8">
         <v>1.494212962962963E-2</v>
       </c>
       <c r="F8" s="3">
         <v>45978</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="8">
         <v>1.8414351851851852E-2</v>
       </c>
       <c r="H8" s="1">
@@ -833,13 +845,13 @@
       <c r="D9" s="3">
         <v>45978</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="8">
         <v>1.8877314814814816E-2</v>
       </c>
       <c r="F9" s="3">
         <v>45978</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="8">
         <v>2.2349537037037036E-2</v>
       </c>
       <c r="H9" s="1">
@@ -872,13 +884,13 @@
       <c r="D10" s="3">
         <v>45978</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="8">
         <v>2.2800925925925926E-2</v>
       </c>
       <c r="F10" s="3">
         <v>45978</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="8">
         <v>2.627314814814815E-2</v>
       </c>
       <c r="H10" s="1">
@@ -911,13 +923,13 @@
       <c r="D11" s="3">
         <v>45978</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="8">
         <v>2.5439814814814814E-2</v>
       </c>
       <c r="F11" s="3">
         <v>45978</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="8">
         <v>2.8912037037037038E-2</v>
       </c>
       <c r="H11" s="1">
@@ -950,13 +962,13 @@
       <c r="D12" s="3">
         <v>45978</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="8">
         <v>2.9363425925925925E-2</v>
       </c>
       <c r="F12" s="3">
         <v>45978</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="8">
         <v>3.2835648148148149E-2</v>
       </c>
       <c r="H12" s="1">
@@ -989,13 +1001,13 @@
       <c r="D13" s="3">
         <v>45978</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="8">
         <v>3.3287037037037039E-2</v>
       </c>
       <c r="F13" s="3">
         <v>45978</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="8">
         <v>3.6759259259259262E-2</v>
       </c>
       <c r="H13" s="1">
@@ -1028,13 +1040,13 @@
       <c r="D14" s="3">
         <v>45978</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="8">
         <v>3.3321759259259259E-2</v>
       </c>
       <c r="F14" s="3">
         <v>45978</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="8">
         <v>3.6793981481481483E-2</v>
       </c>
       <c r="H14" s="1">
@@ -1067,13 +1079,13 @@
       <c r="D15" s="3">
         <v>45978</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="8">
         <v>3.7245370370370373E-2</v>
       </c>
       <c r="F15" s="3">
         <v>45978</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="8">
         <v>4.071759259259259E-2</v>
       </c>
       <c r="H15" s="1">
@@ -1106,13 +1118,13 @@
       <c r="D16" s="3">
         <v>45978</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="8">
         <v>3.726851851851852E-2</v>
       </c>
       <c r="F16" s="3">
         <v>45978</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="8">
         <v>4.0740740740740744E-2</v>
       </c>
       <c r="H16" s="1">
@@ -1145,13 +1157,13 @@
       <c r="D17" s="3">
         <v>45978</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="8">
         <v>4.1192129629629627E-2</v>
       </c>
       <c r="F17" s="3">
         <v>45978</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="8">
         <v>4.4664351851851851E-2</v>
       </c>
       <c r="H17" s="1">
@@ -1184,13 +1196,13 @@
       <c r="D18" s="3">
         <v>45978</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="8">
         <v>4.1215277777777781E-2</v>
       </c>
       <c r="F18" s="3">
         <v>45978</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="8">
         <v>4.4687499999999998E-2</v>
       </c>
       <c r="H18" s="1">
@@ -1223,13 +1235,13 @@
       <c r="D19" s="3">
         <v>45978</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="8">
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="F19" s="3">
         <v>45978</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="8">
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="H19" s="1">
@@ -1262,13 +1274,13 @@
       <c r="D20" s="3">
         <v>45978</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="8">
         <v>4.5162037037037035E-2</v>
       </c>
       <c r="F20" s="3">
         <v>45978</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="8">
         <v>4.8634259259259259E-2</v>
       </c>
       <c r="H20" s="1">
@@ -1301,13 +1313,13 @@
       <c r="D21" s="3">
         <v>45978</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="8">
         <v>4.9085648148148149E-2</v>
       </c>
       <c r="F21" s="3">
         <v>45978</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="8">
         <v>5.2557870370370373E-2</v>
       </c>
       <c r="H21" s="1">
@@ -1340,13 +1352,13 @@
       <c r="D22" s="3">
         <v>45978</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="8">
         <v>4.9108796296296296E-2</v>
       </c>
       <c r="F22" s="3">
         <v>45978</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="8">
         <v>5.258101851851852E-2</v>
       </c>
       <c r="H22" s="1">
@@ -1379,13 +1391,13 @@
       <c r="D23" s="3">
         <v>45978</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="8">
         <v>4.9131944444444443E-2</v>
       </c>
       <c r="F23" s="3">
         <v>45978</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="8">
         <v>5.2604166666666667E-2</v>
       </c>
       <c r="H23" s="1">
@@ -1418,13 +1430,13 @@
       <c r="D24" s="3">
         <v>45978</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="8">
         <v>5.3055555555555557E-2</v>
       </c>
       <c r="F24" s="3">
         <v>45978</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="8">
         <v>5.6527777777777781E-2</v>
       </c>
       <c r="H24" s="1">
@@ -1457,13 +1469,13 @@
       <c r="D25" s="3">
         <v>45978</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="8">
         <v>5.3078703703703704E-2</v>
       </c>
       <c r="F25" s="3">
         <v>45978</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="8">
         <v>5.6550925925925928E-2</v>
       </c>
       <c r="H25" s="1">
@@ -1496,13 +1508,13 @@
       <c r="D26" s="3">
         <v>45978</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="8">
         <v>5.3101851851851851E-2</v>
       </c>
       <c r="F26" s="3">
         <v>45978</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="8">
         <v>5.6574074074074075E-2</v>
       </c>
       <c r="H26" s="1">
@@ -1535,13 +1547,13 @@
       <c r="D27" s="3">
         <v>45978</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="8">
         <v>5.7025462962962965E-2</v>
       </c>
       <c r="F27" s="3">
         <v>45978</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="8">
         <v>6.0497685185185182E-2</v>
       </c>
       <c r="H27" s="1">
@@ -1574,13 +1586,13 @@
       <c r="D28" s="3">
         <v>45978</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="8">
         <v>5.7048611111111112E-2</v>
       </c>
       <c r="F28" s="3">
         <v>45978</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="8">
         <v>6.0520833333333336E-2</v>
       </c>
       <c r="H28" s="1">
@@ -1613,13 +1625,13 @@
       <c r="D29" s="3">
         <v>45978</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="8">
         <v>7.1006944444444442E-2</v>
       </c>
       <c r="F29" s="3">
         <v>45978</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="8">
         <v>7.795138888888889E-2</v>
       </c>
       <c r="H29" s="1">
@@ -1652,13 +1664,13 @@
       <c r="D30" s="3">
         <v>45978</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="8">
         <v>7.8229166666666669E-2</v>
       </c>
       <c r="F30" s="3">
         <v>45978</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="8">
         <v>8.1701388888888893E-2</v>
       </c>
       <c r="H30" s="1">
@@ -1691,13 +1703,13 @@
       <c r="D31" s="3">
         <v>45978</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="8">
         <v>8.5520833333333338E-2</v>
       </c>
       <c r="F31" s="3">
         <v>45978</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="8">
         <v>8.8993055555555561E-2</v>
       </c>
       <c r="H31" s="1">
@@ -1730,13 +1742,13 @@
       <c r="D32" s="3">
         <v>45978</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="8">
         <v>9.3865740740740736E-2</v>
       </c>
       <c r="F32" s="3">
         <v>45978</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="8">
         <v>0.10081018518518518</v>
       </c>
       <c r="H32" s="1">
@@ -1769,13 +1781,13 @@
       <c r="D33" s="3">
         <v>45978</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="8">
         <v>0.10836805555555555</v>
       </c>
       <c r="F33" s="3">
         <v>45978</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="8">
         <v>0.1153125</v>
       </c>
       <c r="H33" s="1">
@@ -1808,13 +1820,13 @@
       <c r="D34" s="3">
         <v>45978</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="8">
         <v>0.11559027777777778</v>
       </c>
       <c r="F34" s="3">
         <v>45978</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="8">
         <v>0.12253472222222223</v>
       </c>
       <c r="H34" s="1">
@@ -1847,13 +1859,13 @@
       <c r="D35" s="3">
         <v>45978</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="8">
         <v>0.1228125</v>
       </c>
       <c r="F35" s="3">
         <v>45978</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="8">
         <v>0.12628472222222223</v>
       </c>
       <c r="H35" s="1">
@@ -1886,13 +1898,13 @@
       <c r="D36" s="3">
         <v>45978</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="8">
         <v>0.12655092592592593</v>
       </c>
       <c r="F36" s="3">
         <v>45978</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="8">
         <v>0.13349537037037038</v>
       </c>
       <c r="H36" s="1">
@@ -1925,13 +1937,13 @@
       <c r="D37" s="3">
         <v>45978</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="8">
         <v>0.13377314814814814</v>
       </c>
       <c r="F37" s="3">
         <v>45978</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="8">
         <v>0.14071759259259259</v>
       </c>
       <c r="H37" s="1">
@@ -1964,13 +1976,13 @@
       <c r="D38" s="3">
         <v>45978</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="8">
         <v>0.14098379629629629</v>
       </c>
       <c r="F38" s="3">
         <v>45978</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="8">
         <v>0.14792824074074074</v>
       </c>
       <c r="H38" s="1">
@@ -2003,13 +2015,13 @@
       <c r="D39" s="3">
         <v>45978</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="8">
         <v>0.14820601851851853</v>
       </c>
       <c r="F39" s="3">
         <v>45978</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="8">
         <v>0.15515046296296298</v>
       </c>
       <c r="H39" s="1">
@@ -2042,13 +2054,13 @@
       <c r="D40" s="3">
         <v>45978</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="8">
         <v>0.15542824074074074</v>
       </c>
       <c r="F40" s="3">
         <v>45978</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="8">
         <v>0.16237268518518519</v>
       </c>
       <c r="H40" s="1">
@@ -2081,13 +2093,13 @@
       <c r="D41" s="3">
         <v>45978</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="8">
         <v>0.16327546296296297</v>
       </c>
       <c r="F41" s="3">
         <v>45978</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="8">
         <v>0.17021990740740742</v>
       </c>
       <c r="H41" s="1">
@@ -2120,13 +2132,13 @@
       <c r="D42" s="3">
         <v>45978</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="8">
         <v>0.17056712962962964</v>
       </c>
       <c r="F42" s="3">
         <v>45978</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="8">
         <v>0.17751157407407409</v>
       </c>
       <c r="H42" s="1">
@@ -2159,13 +2171,13 @@
       <c r="D43" s="3">
         <v>45978</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="8">
         <v>0.17785879629629631</v>
       </c>
       <c r="F43" s="3">
         <v>45978</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="8">
         <v>0.18480324074074075</v>
       </c>
       <c r="H43" s="1">
@@ -2198,13 +2210,13 @@
       <c r="D44" s="3">
         <v>45978</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="8">
         <v>0.18515046296296298</v>
       </c>
       <c r="F44" s="3">
         <v>45978</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="8">
         <v>0.19209490740740739</v>
       </c>
       <c r="H44" s="1">
@@ -2237,13 +2249,13 @@
       <c r="D45" s="3">
         <v>45978</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="8">
         <v>0.19244212962962962</v>
       </c>
       <c r="F45" s="3">
         <v>45978</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="8">
         <v>0.19938657407407406</v>
       </c>
       <c r="H45" s="1">
@@ -2276,13 +2288,13 @@
       <c r="D46" s="3">
         <v>45978</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="8">
         <v>0.19974537037037038</v>
       </c>
       <c r="F46" s="3">
         <v>45978</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="8">
         <v>0.20668981481481483</v>
       </c>
       <c r="H46" s="1">
@@ -2315,13 +2327,13 @@
       <c r="D47" s="3">
         <v>45978</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="8">
         <v>0.20703703703703705</v>
       </c>
       <c r="F47" s="3">
         <v>45978</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="8">
         <v>0.21398148148148149</v>
       </c>
       <c r="H47" s="1">
@@ -2354,13 +2366,13 @@
       <c r="D48" s="3">
         <v>45978</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="8">
         <v>0.21434027777777778</v>
       </c>
       <c r="F48" s="3">
         <v>45978</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="8">
         <v>0.22128472222222223</v>
       </c>
       <c r="H48" s="1">
@@ -2393,13 +2405,13 @@
       <c r="D49" s="3">
         <v>45978</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="8">
         <v>0.22163194444444445</v>
       </c>
       <c r="F49" s="3">
         <v>45978</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="8">
         <v>0.2285763888888889</v>
       </c>
       <c r="H49" s="1">
@@ -2432,13 +2444,13 @@
       <c r="D50" s="3">
         <v>45978</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="8">
         <v>0.22892361111111112</v>
       </c>
       <c r="F50" s="3">
         <v>45978</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="8">
         <v>0.23586805555555557</v>
       </c>
       <c r="H50" s="1">
@@ -2471,13 +2483,13 @@
       <c r="D51" s="3">
         <v>45978</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="8">
         <v>0.23621527777777779</v>
       </c>
       <c r="F51" s="3">
         <v>45978</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="8">
         <v>0.24315972222222224</v>
       </c>
       <c r="H51" s="1">
@@ -2510,13 +2522,13 @@
       <c r="D52" s="3">
         <v>45978</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="8">
         <v>0.24350694444444446</v>
       </c>
       <c r="F52" s="3">
         <v>45978</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="8">
         <v>0.2504513888888889</v>
       </c>
       <c r="H52" s="1">
@@ -2549,13 +2561,13 @@
       <c r="D53" s="3">
         <v>45978</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="8">
         <v>0.25081018518518516</v>
       </c>
       <c r="F53" s="3">
         <v>45978</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="8">
         <v>0.25428240740740743</v>
       </c>
       <c r="H53" s="1">
@@ -2588,13 +2600,13 @@
       <c r="D54" s="3">
         <v>45978</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="8">
         <v>0.25462962962962965</v>
       </c>
       <c r="F54" s="3">
         <v>45978</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="8">
         <v>0.26157407407407407</v>
       </c>
       <c r="H54" s="1">
@@ -2627,13 +2639,13 @@
       <c r="D55" s="3">
         <v>45978</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="8">
         <v>0.26192129629629629</v>
       </c>
       <c r="F55" s="3">
         <v>45978</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="8">
         <v>0.26886574074074077</v>
       </c>
       <c r="H55" s="1">
@@ -2666,13 +2678,13 @@
       <c r="D56" s="3">
         <v>45978</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="8">
         <v>0.26921296296296299</v>
       </c>
       <c r="F56" s="3">
         <v>45978</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="8">
         <v>0.27615740740740741</v>
       </c>
       <c r="H56" s="1">
@@ -2705,13 +2717,13 @@
       <c r="D57" s="3">
         <v>45978</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="8">
         <v>0.27650462962962963</v>
       </c>
       <c r="F57" s="3">
         <v>45978</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="8">
         <v>0.28344907407407405</v>
       </c>
       <c r="H57" s="1">
@@ -2744,13 +2756,13 @@
       <c r="D58" s="3">
         <v>45978</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="8">
         <v>0.28380787037037036</v>
       </c>
       <c r="F58" s="3">
         <v>45978</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="8">
         <v>0.29075231481481484</v>
       </c>
       <c r="H58" s="1">
@@ -2783,13 +2795,13 @@
       <c r="D59" s="3">
         <v>45978</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="8">
         <v>0.29109953703703706</v>
       </c>
       <c r="F59" s="3">
         <v>45978</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="8">
         <v>0.29804398148148148</v>
       </c>
       <c r="H59" s="1">
@@ -2822,13 +2834,13 @@
       <c r="D60" s="3">
         <v>45978</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="8">
         <v>0.29840277777777779</v>
       </c>
       <c r="F60" s="3">
         <v>45978</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="8">
         <v>0.30534722222222221</v>
       </c>
       <c r="H60" s="1">
@@ -2861,13 +2873,13 @@
       <c r="D61" s="3">
         <v>45978</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="8">
         <v>0.30569444444444444</v>
       </c>
       <c r="F61" s="3">
         <v>45978</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="8">
         <v>0.30916666666666665</v>
       </c>
       <c r="H61" s="1">
@@ -2900,13 +2912,13 @@
       <c r="D62" s="3">
         <v>45978</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="8">
         <v>0.30951388888888887</v>
       </c>
       <c r="F62" s="3">
         <v>45978</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="8">
         <v>0.31645833333333334</v>
       </c>
       <c r="H62" s="1">
@@ -2939,13 +2951,13 @@
       <c r="D63" s="3">
         <v>45978</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="8">
         <v>0.31681712962962966</v>
       </c>
       <c r="F63" s="3">
         <v>45978</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="8">
         <v>0.32028935185185187</v>
       </c>
       <c r="H63" s="1">
@@ -2978,13 +2990,13 @@
       <c r="D64" s="3">
         <v>45978</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="8">
         <v>0.32063657407407409</v>
       </c>
       <c r="F64" s="3">
         <v>45978</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="8">
         <v>0.32758101851851851</v>
       </c>
       <c r="H64" s="1">
@@ -3017,13 +3029,13 @@
       <c r="D65" s="3">
         <v>45978</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="8">
         <v>0.32792824074074073</v>
       </c>
       <c r="F65" s="3">
         <v>45978</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="8">
         <v>0.3348726851851852</v>
       </c>
       <c r="H65" s="1">
@@ -3056,13 +3068,13 @@
       <c r="D66" s="3">
         <v>45978</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="8">
         <v>0.33521990740740742</v>
       </c>
       <c r="F66" s="3">
         <v>45978</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="8">
         <v>0.34216435185185184</v>
       </c>
       <c r="H66" s="1">
@@ -3095,13 +3107,13 @@
       <c r="D67" s="3">
         <v>45978</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="8">
         <v>0.34251157407407407</v>
       </c>
       <c r="F67" s="3">
         <v>45978</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="8">
         <v>0.34945601851851854</v>
       </c>
       <c r="H67" s="1">
@@ -3134,13 +3146,13 @@
       <c r="D68" s="3">
         <v>45978</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="8">
         <v>0.3498148148148148</v>
       </c>
       <c r="F68" s="3">
         <v>45978</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="8">
         <v>0.35675925925925928</v>
       </c>
       <c r="H68" s="1">
@@ -3173,13 +3185,13 @@
       <c r="D69" s="3">
         <v>45978</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="8">
         <v>0.3571064814814815</v>
       </c>
       <c r="F69" s="3">
         <v>45978</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="8">
         <v>0.36405092592592592</v>
       </c>
       <c r="H69" s="1">
@@ -3212,13 +3224,13 @@
       <c r="D70" s="3">
         <v>45978</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="8">
         <v>0.36439814814814814</v>
       </c>
       <c r="F70" s="3">
         <v>45978</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="8">
         <v>0.37134259259259261</v>
       </c>
       <c r="H70" s="1">
@@ -3251,13 +3263,13 @@
       <c r="D71" s="3">
         <v>45978</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="8">
         <v>0.37168981481481483</v>
       </c>
       <c r="F71" s="3">
         <v>45978</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="8">
         <v>0.37863425925925925</v>
       </c>
       <c r="H71" s="1">
@@ -3290,13 +3302,13 @@
       <c r="D72" s="3">
         <v>45978</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="8">
         <v>0.37899305555555557</v>
       </c>
       <c r="F72" s="3">
         <v>45978</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="8">
         <v>0.38246527777777778</v>
       </c>
       <c r="H72" s="1">
@@ -3329,13 +3341,13 @@
       <c r="D73" s="3">
         <v>45978</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="8">
         <v>0.3828125</v>
       </c>
       <c r="F73" s="3">
         <v>45978</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="8">
         <v>0.38975694444444442</v>
       </c>
       <c r="H73" s="1">
@@ -3368,13 +3380,13 @@
       <c r="D74" s="3">
         <v>45978</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="8">
         <v>0.39011574074074074</v>
       </c>
       <c r="F74" s="3">
         <v>45978</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="8">
         <v>0.39358796296296295</v>
       </c>
       <c r="H74" s="1">
@@ -3407,13 +3419,13 @@
       <c r="D75" s="3">
         <v>45978</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="8">
         <v>0.39393518518518517</v>
       </c>
       <c r="F75" s="3">
         <v>45978</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="8">
         <v>0.40087962962962964</v>
       </c>
       <c r="H75" s="1">
@@ -3446,13 +3458,13 @@
       <c r="D76" s="3">
         <v>45978</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="8">
         <v>0.40122685185185186</v>
       </c>
       <c r="F76" s="3">
         <v>45978</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="8">
         <v>0.40817129629629628</v>
       </c>
       <c r="H76" s="1">
@@ -3485,13 +3497,13 @@
       <c r="D77" s="3">
         <v>45978</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="8">
         <v>0.4085300925925926</v>
       </c>
       <c r="F77" s="3">
         <v>45978</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="8">
         <v>0.41547453703703702</v>
       </c>
       <c r="H77" s="1">
@@ -3524,13 +3536,13 @@
       <c r="D78" s="3">
         <v>45978</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="8">
         <v>0.88749999999999996</v>
       </c>
       <c r="F78" s="3">
         <v>45978</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="8">
         <v>0.8979166666666667</v>
       </c>
       <c r="H78" s="1">
@@ -3563,13 +3575,13 @@
       <c r="D79" s="3">
         <v>45978</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="8">
         <v>0.89848379629629627</v>
       </c>
       <c r="F79" s="3">
         <v>45978</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="8">
         <v>0.90890046296296301</v>
       </c>
       <c r="H79" s="1">
@@ -3602,13 +3614,13 @@
       <c r="D80" s="3">
         <v>45978</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="8">
         <v>0.90945601851851854</v>
       </c>
       <c r="F80" s="3">
         <v>45978</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="8">
         <v>0.9302893518518518</v>
       </c>
       <c r="H80" s="1">
@@ -3641,13 +3653,13 @@
       <c r="D81" s="3">
         <v>45978</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="8">
         <v>0.93085648148148148</v>
       </c>
       <c r="F81" s="3">
         <v>45978</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="8">
         <v>0.94127314814814811</v>
       </c>
       <c r="H81" s="1">
@@ -3680,13 +3692,13 @@
       <c r="D82" s="3">
         <v>45978</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="8">
         <v>0.94184027777777779</v>
       </c>
       <c r="F82" s="3">
         <v>45978</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="8">
         <v>0.94878472222222221</v>
       </c>
       <c r="H82" s="1">
@@ -3719,13 +3731,13 @@
       <c r="D83" s="3">
         <v>45978</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="8">
         <v>0.94935185185185189</v>
       </c>
       <c r="F83" s="3">
         <v>45978</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="8">
         <v>0.97018518518518515</v>
       </c>
       <c r="H83" s="1">
@@ -3758,13 +3770,13 @@
       <c r="D84" s="3">
         <v>45978</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="8">
         <v>0.97076388888888887</v>
       </c>
       <c r="F84" s="3">
         <v>45978</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="8">
         <v>0.97770833333333329</v>
       </c>
       <c r="H84" s="1">
@@ -3797,13 +3809,13 @@
       <c r="D85" s="3">
         <v>45978</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="8">
         <v>0.97828703703703701</v>
       </c>
       <c r="F85" s="3">
         <v>45978</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="8">
         <v>0.99912037037037038</v>
       </c>
       <c r="H85" s="1">
@@ -3836,13 +3848,13 @@
       <c r="D86" s="3">
         <v>45979</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="8">
         <v>4.0972222222222226E-3</v>
       </c>
       <c r="F86" s="3">
         <v>45979</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="8">
         <v>7.5694444444444446E-3</v>
       </c>
       <c r="H86" s="1">
@@ -3875,13 +3887,13 @@
       <c r="D87" s="3">
         <v>45979</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="8">
         <v>6.9386574074074073E-2</v>
       </c>
       <c r="F87" s="3">
         <v>45979</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="8">
         <v>7.633101851851852E-2</v>
       </c>
       <c r="H87" s="1">
@@ -3914,13 +3926,13 @@
       <c r="D88" s="3">
         <v>45979</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="8">
         <v>7.6886574074074079E-2</v>
       </c>
       <c r="F88" s="3">
         <v>45979</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="8">
         <v>8.3831018518518513E-2</v>
       </c>
       <c r="H88" s="1">
@@ -3953,13 +3965,13 @@
       <c r="D89" s="3">
         <v>45979</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="8">
         <v>8.4386574074074072E-2</v>
       </c>
       <c r="F89" s="3">
         <v>45979</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="8">
         <v>9.133101851851852E-2</v>
       </c>
       <c r="H89" s="1">
@@ -3992,13 +4004,13 @@
       <c r="D90" s="3">
         <v>45979</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="8">
         <v>9.1886574074074079E-2</v>
       </c>
       <c r="F90" s="3">
         <v>45979</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="8">
         <v>9.8831018518518512E-2</v>
       </c>
       <c r="H90" s="1">
@@ -4031,13 +4043,13 @@
       <c r="D91" s="3">
         <v>45979</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="8">
         <v>9.9375000000000005E-2</v>
       </c>
       <c r="F91" s="3">
         <v>45979</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="8">
         <v>0.10631944444444444</v>
       </c>
       <c r="H91" s="1">
@@ -4070,13 +4082,13 @@
       <c r="D92" s="3">
         <v>45979</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="8">
         <v>0.106875</v>
       </c>
       <c r="F92" s="3">
         <v>45979</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="8">
         <v>0.11034722222222222</v>
       </c>
       <c r="H92" s="1">
@@ -4109,13 +4121,13 @@
       <c r="D93" s="3">
         <v>45979</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="8">
         <v>0.11090277777777778</v>
       </c>
       <c r="F93" s="3">
         <v>45979</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="8">
         <v>0.114375</v>
       </c>
       <c r="H93" s="1">
@@ -4148,13 +4160,13 @@
       <c r="D94" s="3">
         <v>45979</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="8">
         <v>0.11493055555555555</v>
       </c>
       <c r="F94" s="3">
         <v>45979</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="8">
         <v>0.11840277777777777</v>
       </c>
       <c r="H94" s="1">
@@ -4187,13 +4199,13 @@
       <c r="D95" s="3">
         <v>45979</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="8">
         <v>0.11895833333333333</v>
       </c>
       <c r="F95" s="3">
         <v>45979</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="8">
         <v>0.12243055555555556</v>
       </c>
       <c r="H95" s="1">
@@ -4226,13 +4238,13 @@
       <c r="D96" s="3">
         <v>45979</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="8">
         <v>0.12298611111111112</v>
       </c>
       <c r="F96" s="3">
         <v>45979</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="8">
         <v>0.12645833333333334</v>
       </c>
       <c r="H96" s="1">
@@ -4265,13 +4277,13 @@
       <c r="D97" s="3">
         <v>45979</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="8">
         <v>0.1270023148148148</v>
       </c>
       <c r="F97" s="3">
         <v>45979</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="8">
         <v>0.14783564814814815</v>
       </c>
       <c r="H97" s="1">
@@ -4304,13 +4316,13 @@
       <c r="D98" s="3">
         <v>45979</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="8">
         <v>0.14839120370370371</v>
       </c>
       <c r="F98" s="3">
         <v>45979</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="8">
         <v>0.15533564814814815</v>
       </c>
       <c r="H98" s="1">
@@ -4343,13 +4355,13 @@
       <c r="D99" s="3">
         <v>45979</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="8">
         <v>0.15590277777777778</v>
       </c>
       <c r="F99" s="3">
         <v>45979</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="8">
         <v>0.16631944444444444</v>
       </c>
       <c r="H99" s="1">
@@ -4382,13 +4394,13 @@
       <c r="D100" s="3">
         <v>45979</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="8">
         <v>0.166875</v>
       </c>
       <c r="F100" s="3">
         <v>45979</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100" s="8">
         <v>0.17034722222222223</v>
       </c>
       <c r="H100" s="1">
@@ -4421,13 +4433,13 @@
       <c r="D101" s="3">
         <v>45979</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="8">
         <v>0.17090277777777776</v>
       </c>
       <c r="F101" s="3">
         <v>45979</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="8">
         <v>0.18131944444444445</v>
       </c>
       <c r="H101" s="1">
@@ -4460,13 +4472,13 @@
       <c r="D102" s="3">
         <v>45979</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="8">
         <v>0.18187500000000001</v>
       </c>
       <c r="F102" s="3">
         <v>45979</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G102" s="8">
         <v>0.18881944444444446</v>
       </c>
       <c r="H102" s="1">
@@ -4499,13 +4511,13 @@
       <c r="D103" s="3">
         <v>45979</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="8">
         <v>0.18937499999999999</v>
       </c>
       <c r="F103" s="3">
         <v>45979</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103" s="8">
         <v>0.19631944444444444</v>
       </c>
       <c r="H103" s="1">
@@ -4538,13 +4550,13 @@
       <c r="D104" s="3">
         <v>45979</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="8">
         <v>0.19688657407407406</v>
       </c>
       <c r="F104" s="3">
         <v>45979</v>
       </c>
-      <c r="G104" s="4">
+      <c r="G104" s="8">
         <v>0.20383101851851851</v>
       </c>
       <c r="H104" s="1">
@@ -4577,13 +4589,13 @@
       <c r="D105" s="3">
         <v>45979</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="8">
         <v>0.20438657407407407</v>
       </c>
       <c r="F105" s="3">
         <v>45979</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G105" s="8">
         <v>0.21133101851851852</v>
       </c>
       <c r="H105" s="1">
@@ -4616,13 +4628,13 @@
       <c r="D106" s="3">
         <v>45979</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="8">
         <v>0.21188657407407407</v>
       </c>
       <c r="F106" s="3">
         <v>45979</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106" s="8">
         <v>0.22230324074074073</v>
       </c>
       <c r="H106" s="1">
@@ -4655,13 +4667,13 @@
       <c r="D107" s="3">
         <v>45979</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="8">
         <v>0.22287037037037036</v>
       </c>
       <c r="F107" s="3">
         <v>45979</v>
       </c>
-      <c r="G107" s="4">
+      <c r="G107" s="8">
         <v>0.22981481481481481</v>
       </c>
       <c r="H107" s="1">
@@ -4694,13 +4706,13 @@
       <c r="D108" s="3">
         <v>45979</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108" s="8">
         <v>0.2303587962962963</v>
       </c>
       <c r="F108" s="3">
         <v>45979</v>
       </c>
-      <c r="G108" s="4">
+      <c r="G108" s="8">
         <v>0.23383101851851851</v>
       </c>
       <c r="H108" s="1">
@@ -4733,13 +4745,13 @@
       <c r="D109" s="3">
         <v>45979</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="8">
         <v>0.23438657407407407</v>
       </c>
       <c r="F109" s="3">
         <v>45979</v>
       </c>
-      <c r="G109" s="4">
+      <c r="G109" s="8">
         <v>0.24480324074074075</v>
       </c>
       <c r="H109" s="1">
@@ -4772,13 +4784,13 @@
       <c r="D110" s="3">
         <v>45979</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="8">
         <v>0.24538194444444444</v>
       </c>
       <c r="F110" s="3">
         <v>45979</v>
       </c>
-      <c r="G110" s="4">
+      <c r="G110" s="8">
         <v>0.24885416666666665</v>
       </c>
       <c r="H110" s="1">
@@ -4811,13 +4823,13 @@
       <c r="D111" s="3">
         <v>45979</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="8">
         <v>0.24940972222222221</v>
       </c>
       <c r="F111" s="3">
         <v>45979</v>
       </c>
-      <c r="G111" s="4">
+      <c r="G111" s="8">
         <v>0.25288194444444445</v>
       </c>
       <c r="H111" s="1">
@@ -4850,13 +4862,13 @@
       <c r="D112" s="3">
         <v>45979</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="8">
         <v>0.25344907407407408</v>
       </c>
       <c r="F112" s="3">
         <v>45979</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112" s="8">
         <v>0.25692129629629629</v>
       </c>
       <c r="H112" s="1">
@@ -4889,13 +4901,13 @@
       <c r="D113" s="3">
         <v>45979</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="8">
         <v>0.25747685185185187</v>
       </c>
       <c r="F113" s="3">
         <v>45979</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113" s="8">
         <v>0.26442129629629629</v>
       </c>
       <c r="H113" s="1">
@@ -4928,13 +4940,13 @@
       <c r="D114" s="3">
         <v>45979</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="8">
         <v>0.26497685185185182</v>
       </c>
       <c r="F114" s="3">
         <v>45979</v>
       </c>
-      <c r="G114" s="4">
+      <c r="G114" s="8">
         <v>0.26844907407407409</v>
       </c>
       <c r="H114" s="1">
@@ -4967,13 +4979,13 @@
       <c r="D115" s="3">
         <v>45979</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="8">
         <v>0.26900462962962962</v>
       </c>
       <c r="F115" s="3">
         <v>45979</v>
       </c>
-      <c r="G115" s="4">
+      <c r="G115" s="8">
         <v>0.27247685185185183</v>
       </c>
       <c r="H115" s="1">
@@ -5006,13 +5018,13 @@
       <c r="D116" s="3">
         <v>45979</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="8">
         <v>0.27303240740740742</v>
       </c>
       <c r="F116" s="3">
         <v>45979</v>
       </c>
-      <c r="G116" s="4">
+      <c r="G116" s="8">
         <v>0.28344907407407405</v>
       </c>
       <c r="H116" s="1">
@@ -5045,13 +5057,13 @@
       <c r="D117" s="3">
         <v>45979</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="8">
         <v>0.28401620370370373</v>
       </c>
       <c r="F117" s="3">
         <v>45979</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G117" s="8">
         <v>0.29096064814814815</v>
       </c>
       <c r="H117" s="1">
@@ -5084,13 +5096,13 @@
       <c r="D118" s="3">
         <v>45979</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="8">
         <v>0.29151620370370368</v>
       </c>
       <c r="F118" s="3">
         <v>45979</v>
       </c>
-      <c r="G118" s="4">
+      <c r="G118" s="8">
         <v>0.29498842592592595</v>
       </c>
       <c r="H118" s="1">
@@ -5123,13 +5135,13 @@
       <c r="D119" s="3">
         <v>45979</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="8">
         <v>0.29554398148148148</v>
       </c>
       <c r="F119" s="3">
         <v>45979</v>
       </c>
-      <c r="G119" s="4">
+      <c r="G119" s="8">
         <v>0.31637731481481479</v>
       </c>
       <c r="H119" s="1">
@@ -5162,13 +5174,13 @@
       <c r="D120" s="3">
         <v>45979</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120" s="8">
         <v>0.31694444444444442</v>
       </c>
       <c r="F120" s="3">
         <v>45979</v>
       </c>
-      <c r="G120" s="4">
+      <c r="G120" s="8">
         <v>0.33777777777777779</v>
       </c>
       <c r="H120" s="1">
@@ -5201,13 +5213,13 @@
       <c r="D121" s="3">
         <v>45979</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="8">
         <v>0.33834490740740741</v>
       </c>
       <c r="F121" s="3">
         <v>45979</v>
       </c>
-      <c r="G121" s="4">
+      <c r="G121" s="8">
         <v>0.35917824074074073</v>
       </c>
       <c r="H121" s="1">
@@ -5240,13 +5252,13 @@
       <c r="D122" s="3">
         <v>45979</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="8">
         <v>0.35974537037037035</v>
       </c>
       <c r="F122" s="3">
         <v>45979</v>
       </c>
-      <c r="G122" s="4">
+      <c r="G122" s="8">
         <v>0.36668981481481483</v>
       </c>
       <c r="H122" s="1">
@@ -5279,13 +5291,13 @@
       <c r="D123" s="3">
         <v>45979</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="8">
         <v>0.36725694444444446</v>
       </c>
       <c r="F123" s="3">
         <v>45979</v>
       </c>
-      <c r="G123" s="4">
+      <c r="G123" s="8">
         <v>0.37767361111111108</v>
       </c>
       <c r="H123" s="1">
@@ -5318,13 +5330,13 @@
       <c r="D124" s="3">
         <v>45979</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124" s="8">
         <v>0.37822916666666667</v>
       </c>
       <c r="F124" s="3">
         <v>45979</v>
       </c>
-      <c r="G124" s="4">
+      <c r="G124" s="8">
         <v>0.38517361111111109</v>
       </c>
       <c r="H124" s="1">
@@ -5357,13 +5369,13 @@
       <c r="D125" s="3">
         <v>45979</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="8">
         <v>0.38572916666666668</v>
       </c>
       <c r="F125" s="3">
         <v>45979</v>
       </c>
-      <c r="G125" s="4">
+      <c r="G125" s="8">
         <v>0.38920138888888889</v>
       </c>
       <c r="H125" s="1">
@@ -5396,13 +5408,13 @@
       <c r="D126" s="3">
         <v>45979</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E126" s="8">
         <v>0.38976851851851851</v>
       </c>
       <c r="F126" s="3">
         <v>45979</v>
       </c>
-      <c r="G126" s="4">
+      <c r="G126" s="8">
         <v>0.39671296296296299</v>
       </c>
       <c r="H126" s="1">
@@ -5435,13 +5447,13 @@
       <c r="D127" s="3">
         <v>45979</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127" s="8">
         <v>0.39726851851851852</v>
       </c>
       <c r="F127" s="3">
         <v>45979</v>
       </c>
-      <c r="G127" s="4">
+      <c r="G127" s="8">
         <v>0.40074074074074073</v>
       </c>
       <c r="H127" s="1">
@@ -5474,13 +5486,13 @@
       <c r="D128" s="3">
         <v>45979</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E128" s="8">
         <v>0.40129629629629632</v>
       </c>
       <c r="F128" s="3">
         <v>45979</v>
       </c>
-      <c r="G128" s="4">
+      <c r="G128" s="8">
         <v>0.40476851851851853</v>
       </c>
       <c r="H128" s="1">
@@ -5513,13 +5525,13 @@
       <c r="D129" s="3">
         <v>45979</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E129" s="8">
         <v>0.40644675925925927</v>
       </c>
       <c r="F129" s="3">
         <v>45979</v>
       </c>
-      <c r="G129" s="4">
+      <c r="G129" s="8">
         <v>0.40991898148148148</v>
       </c>
       <c r="H129" s="1">
@@ -5552,13 +5564,13 @@
       <c r="D130" s="3">
         <v>45979</v>
       </c>
-      <c r="E130" s="4">
+      <c r="E130" s="8">
         <v>0.41379629629629627</v>
       </c>
       <c r="F130" s="3">
         <v>45979</v>
       </c>
-      <c r="G130" s="4">
+      <c r="G130" s="8">
         <v>0.41726851851851854</v>
       </c>
       <c r="H130" s="1">
@@ -5591,13 +5603,13 @@
       <c r="D131" s="3">
         <v>45979</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E131" s="8">
         <v>0.41783564814814816</v>
       </c>
       <c r="F131" s="3">
         <v>45979</v>
       </c>
-      <c r="G131" s="4">
+      <c r="G131" s="8">
         <v>0.43866898148148148</v>
       </c>
       <c r="H131" s="1">
@@ -5630,13 +5642,13 @@
       <c r="D132" s="3">
         <v>45979</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E132" s="8">
         <v>0.4392361111111111</v>
       </c>
       <c r="F132" s="3">
         <v>45979</v>
       </c>
-      <c r="G132" s="4">
+      <c r="G132" s="8">
         <v>0.46006944444444442</v>
       </c>
       <c r="H132" s="1">
@@ -5669,13 +5681,13 @@
       <c r="D133" s="3">
         <v>45979</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E133" s="8">
         <v>0.46935185185185185</v>
       </c>
       <c r="F133" s="3">
         <v>45979</v>
       </c>
-      <c r="G133" s="4">
+      <c r="G133" s="8">
         <v>0.47629629629629627</v>
       </c>
       <c r="H133" s="1">
@@ -5708,13 +5720,13 @@
       <c r="D134" s="3">
         <v>45979</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134" s="8">
         <v>0.4768634259259259</v>
       </c>
       <c r="F134" s="3">
         <v>45979</v>
       </c>
-      <c r="G134" s="4">
+      <c r="G134" s="8">
         <v>0.48033564814814816</v>
       </c>
       <c r="H134" s="1">
@@ -5747,13 +5759,13 @@
       <c r="D135" s="3">
         <v>45979</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135" s="8">
         <v>0.48090277777777779</v>
       </c>
       <c r="F135" s="3">
         <v>45979</v>
       </c>
-      <c r="G135" s="4">
+      <c r="G135" s="8">
         <v>0.484375</v>
       </c>
       <c r="H135" s="1">
@@ -5786,13 +5798,13 @@
       <c r="D136" s="3">
         <v>45979</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136" s="8">
         <v>0.48496527777777776</v>
       </c>
       <c r="F136" s="3">
         <v>45979</v>
       </c>
-      <c r="G136" s="4">
+      <c r="G136" s="8">
         <v>0.48843750000000002</v>
       </c>
       <c r="H136" s="1">
@@ -5825,13 +5837,13 @@
       <c r="D137" s="3">
         <v>45979</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137" s="8">
         <v>0.48900462962962965</v>
       </c>
       <c r="F137" s="3">
         <v>45979</v>
       </c>
-      <c r="G137" s="4">
+      <c r="G137" s="8">
         <v>0.49247685185185186</v>
       </c>
       <c r="H137" s="1">
@@ -5864,13 +5876,13 @@
       <c r="D138" s="3">
         <v>45979</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138" s="8">
         <v>0.49303240740740739</v>
       </c>
       <c r="F138" s="3">
         <v>45979</v>
       </c>
-      <c r="G138" s="4">
+      <c r="G138" s="8">
         <v>0.49650462962962966</v>
       </c>
       <c r="H138" s="1">
@@ -5903,13 +5915,13 @@
       <c r="D139" s="3">
         <v>45979</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="8">
         <v>0.49707175925925928</v>
       </c>
       <c r="F139" s="3">
         <v>45979</v>
       </c>
-      <c r="G139" s="4">
+      <c r="G139" s="8">
         <v>0.50054398148148149</v>
       </c>
       <c r="H139" s="1">
@@ -5942,13 +5954,13 @@
       <c r="D140" s="3">
         <v>45979</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140" s="8">
         <v>0.50111111111111106</v>
       </c>
       <c r="F140" s="3">
         <v>45979</v>
       </c>
-      <c r="G140" s="4">
+      <c r="G140" s="8">
         <v>0.5115277777777778</v>
       </c>
       <c r="H140" s="1">
@@ -5981,13 +5993,13 @@
       <c r="D141" s="3">
         <v>45979</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141" s="8">
         <v>0.51209490740740737</v>
       </c>
       <c r="F141" s="3">
         <v>45979</v>
       </c>
-      <c r="G141" s="4">
+      <c r="G141" s="8">
         <v>0.52251157407407411</v>
       </c>
       <c r="H141" s="1">
@@ -6020,13 +6032,13 @@
       <c r="D142" s="3">
         <v>45979</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E142" s="8">
         <v>0.52307870370370368</v>
       </c>
       <c r="F142" s="3">
         <v>45979</v>
       </c>
-      <c r="G142" s="4">
+      <c r="G142" s="8">
         <v>0.52655092592592589</v>
       </c>
       <c r="H142" s="1">
@@ -6059,13 +6071,13 @@
       <c r="D143" s="3">
         <v>45979</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143" s="8">
         <v>0.52711805555555558</v>
       </c>
       <c r="F143" s="3">
         <v>45979</v>
       </c>
-      <c r="G143" s="4">
+      <c r="G143" s="8">
         <v>0.53059027777777779</v>
       </c>
       <c r="H143" s="1">
@@ -6098,13 +6110,13 @@
       <c r="D144" s="3">
         <v>45979</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E144" s="8">
         <v>0.53114583333333332</v>
       </c>
       <c r="F144" s="3">
         <v>45979</v>
       </c>
-      <c r="G144" s="4">
+      <c r="G144" s="8">
         <v>0.53461805555555553</v>
       </c>
       <c r="H144" s="1">
@@ -6137,13 +6149,13 @@
       <c r="D145" s="3">
         <v>45979</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145" s="8">
         <v>0.53519675925925925</v>
       </c>
       <c r="F145" s="3">
         <v>45979</v>
       </c>
-      <c r="G145" s="4">
+      <c r="G145" s="8">
         <v>0.53866898148148146</v>
       </c>
       <c r="H145" s="1">
@@ -6176,13 +6188,13 @@
       <c r="D146" s="3">
         <v>45979</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E146" s="8">
         <v>0.53923611111111114</v>
       </c>
       <c r="F146" s="3">
         <v>45979</v>
       </c>
-      <c r="G146" s="4">
+      <c r="G146" s="8">
         <v>0.54270833333333335</v>
       </c>
       <c r="H146" s="1">
@@ -6215,13 +6227,13 @@
       <c r="D147" s="3">
         <v>45979</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147" s="8">
         <v>0.54328703703703707</v>
       </c>
       <c r="F147" s="3">
         <v>45979</v>
       </c>
-      <c r="G147" s="4">
+      <c r="G147" s="8">
         <v>0.55023148148148149</v>
       </c>
       <c r="H147" s="1">
@@ -6254,13 +6266,13 @@
       <c r="D148" s="3">
         <v>45979</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148" s="8">
         <v>0.55079861111111106</v>
       </c>
       <c r="F148" s="3">
         <v>45979</v>
       </c>
-      <c r="G148" s="4">
+      <c r="G148" s="8">
         <v>0.55774305555555559</v>
       </c>
       <c r="H148" s="1">
@@ -6293,13 +6305,13 @@
       <c r="D149" s="3">
         <v>45979</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E149" s="8">
         <v>0.55831018518518516</v>
       </c>
       <c r="F149" s="3">
         <v>45979</v>
       </c>
-      <c r="G149" s="4">
+      <c r="G149" s="8">
         <v>0.56525462962962958</v>
       </c>
       <c r="H149" s="1">
@@ -6332,13 +6344,13 @@
       <c r="D150" s="3">
         <v>45979</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150" s="8">
         <v>0.56581018518518522</v>
       </c>
       <c r="F150" s="3">
         <v>45979</v>
       </c>
-      <c r="G150" s="4">
+      <c r="G150" s="8">
         <v>0.56928240740740743</v>
       </c>
       <c r="H150" s="1">
@@ -6371,13 +6383,13 @@
       <c r="D151" s="3">
         <v>45979</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E151" s="8">
         <v>0.56987268518518519</v>
       </c>
       <c r="F151" s="3">
         <v>45979</v>
       </c>
-      <c r="G151" s="4">
+      <c r="G151" s="8">
         <v>0.57681712962962961</v>
       </c>
       <c r="H151" s="1">
@@ -6410,13 +6422,13 @@
       <c r="D152" s="3">
         <v>45979</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E152" s="8">
         <v>0.57739583333333333</v>
       </c>
       <c r="F152" s="3">
         <v>45979</v>
       </c>
-      <c r="G152" s="4">
+      <c r="G152" s="8">
         <v>0.58781249999999996</v>
       </c>
       <c r="H152" s="1">
@@ -6449,13 +6461,13 @@
       <c r="D153" s="3">
         <v>45979</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153" s="8">
         <v>0.58837962962962964</v>
       </c>
       <c r="F153" s="3">
         <v>45979</v>
       </c>
-      <c r="G153" s="4">
+      <c r="G153" s="8">
         <v>0.59185185185185185</v>
       </c>
       <c r="H153" s="1">
@@ -6488,13 +6500,13 @@
       <c r="D154" s="3">
         <v>45979</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E154" s="8">
         <v>0.59243055555555557</v>
       </c>
       <c r="F154" s="3">
         <v>45979</v>
       </c>
-      <c r="G154" s="4">
+      <c r="G154" s="8">
         <v>0.6028472222222222</v>
       </c>
       <c r="H154" s="1">
@@ -6527,13 +6539,13 @@
       <c r="D155" s="3">
         <v>45979</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155" s="8">
         <v>0.60342592592592592</v>
       </c>
       <c r="F155" s="3">
         <v>45979</v>
       </c>
-      <c r="G155" s="4">
+      <c r="G155" s="8">
         <v>0.60689814814814813</v>
       </c>
       <c r="H155" s="1">
@@ -6566,13 +6578,13 @@
       <c r="D156" s="3">
         <v>45979</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="8">
         <v>0.60746527777777781</v>
       </c>
       <c r="F156" s="3">
         <v>45979</v>
       </c>
-      <c r="G156" s="4">
+      <c r="G156" s="8">
         <v>0.62829861111111107</v>
       </c>
       <c r="H156" s="1">
@@ -6605,13 +6617,13 @@
       <c r="D157" s="3">
         <v>45979</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E157" s="8">
         <v>0.62886574074074075</v>
       </c>
       <c r="F157" s="3">
         <v>45979</v>
       </c>
-      <c r="G157" s="4">
+      <c r="G157" s="8">
         <v>0.63233796296296296</v>
       </c>
       <c r="H157" s="1">
@@ -6644,13 +6656,13 @@
       <c r="D158" s="3">
         <v>45979</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E158" s="8">
         <v>0.63290509259259264</v>
       </c>
       <c r="F158" s="3">
         <v>45979</v>
       </c>
-      <c r="G158" s="4">
+      <c r="G158" s="8">
         <v>0.64332175925925927</v>
       </c>
       <c r="H158" s="1">
@@ -6683,13 +6695,13 @@
       <c r="D159" s="3">
         <v>45979</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E159" s="8">
         <v>0.64388888888888884</v>
       </c>
       <c r="F159" s="3">
         <v>45979</v>
       </c>
-      <c r="G159" s="4">
+      <c r="G159" s="8">
         <v>0.65083333333333337</v>
       </c>
       <c r="H159" s="1">
@@ -6722,13 +6734,13 @@
       <c r="D160" s="3">
         <v>45979</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E160" s="8">
         <v>0.65141203703703698</v>
       </c>
       <c r="F160" s="3">
         <v>45979</v>
       </c>
-      <c r="G160" s="4">
+      <c r="G160" s="8">
         <v>0.66182870370370372</v>
       </c>
       <c r="H160" s="1">
@@ -6761,13 +6773,13 @@
       <c r="D161" s="3">
         <v>45979</v>
       </c>
-      <c r="E161" s="4">
+      <c r="E161" s="8">
         <v>0.66240740740740744</v>
       </c>
       <c r="F161" s="3">
         <v>45979</v>
       </c>
-      <c r="G161" s="4">
+      <c r="G161" s="8">
         <v>0.66935185185185186</v>
       </c>
       <c r="H161" s="1">
@@ -6800,13 +6812,13 @@
       <c r="D162" s="3">
         <v>45979</v>
       </c>
-      <c r="E162" s="4">
+      <c r="E162" s="8">
         <v>0.67001157407407408</v>
       </c>
       <c r="F162" s="3">
         <v>45979</v>
       </c>
-      <c r="G162" s="4">
+      <c r="G162" s="8">
         <v>0.69084490740740745</v>
       </c>
       <c r="H162" s="1">
@@ -6839,13 +6851,13 @@
       <c r="D163" s="3">
         <v>45979</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E163" s="8">
         <v>0.69141203703703702</v>
       </c>
       <c r="F163" s="3">
         <v>45979</v>
       </c>
-      <c r="G163" s="4">
+      <c r="G163" s="8">
         <v>0.71224537037037039</v>
       </c>
       <c r="H163" s="1">
@@ -6878,13 +6890,13 @@
       <c r="D164" s="3">
         <v>45979</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E164" s="8">
         <v>0.71282407407407411</v>
       </c>
       <c r="F164" s="3">
         <v>45979</v>
       </c>
-      <c r="G164" s="4">
+      <c r="G164" s="8">
         <v>0.72324074074074074</v>
       </c>
       <c r="H164" s="1">
@@ -6917,13 +6929,13 @@
       <c r="D165" s="3">
         <v>45979</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E165" s="8">
         <v>0.72381944444444446</v>
       </c>
       <c r="F165" s="3">
         <v>45979</v>
       </c>
-      <c r="G165" s="4">
+      <c r="G165" s="8">
         <v>0.72729166666666667</v>
       </c>
       <c r="H165" s="1">
@@ -6956,13 +6968,13 @@
       <c r="D166" s="3">
         <v>45979</v>
       </c>
-      <c r="E166" s="4">
+      <c r="E166" s="8">
         <v>0.72940972222222222</v>
       </c>
       <c r="F166" s="3">
         <v>45979</v>
       </c>
-      <c r="G166" s="4">
+      <c r="G166" s="8">
         <v>0.73288194444444443</v>
       </c>
       <c r="H166" s="1">
@@ -6995,13 +7007,13 @@
       <c r="D167" s="3">
         <v>45979</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167" s="8">
         <v>0.73344907407407411</v>
       </c>
       <c r="F167" s="3">
         <v>45979</v>
       </c>
-      <c r="G167" s="4">
+      <c r="G167" s="8">
         <v>0.75428240740740737</v>
       </c>
       <c r="H167" s="1">
@@ -7034,13 +7046,13 @@
       <c r="D168" s="3">
         <v>45979</v>
       </c>
-      <c r="E168" s="4">
+      <c r="E168" s="8">
         <v>0.75484953703703705</v>
       </c>
       <c r="F168" s="3">
         <v>45979</v>
       </c>
-      <c r="G168" s="4">
+      <c r="G168" s="8">
         <v>0.76179398148148147</v>
       </c>
       <c r="H168" s="1">
@@ -7073,13 +7085,13 @@
       <c r="D169" s="3">
         <v>45979</v>
       </c>
-      <c r="E169" s="4">
+      <c r="E169" s="8">
         <v>0.76236111111111116</v>
       </c>
       <c r="F169" s="3">
         <v>45979</v>
       </c>
-      <c r="G169" s="4">
+      <c r="G169" s="8">
         <v>0.78319444444444442</v>
       </c>
       <c r="H169" s="1">
@@ -7112,13 +7124,13 @@
       <c r="D170" s="3">
         <v>45979</v>
       </c>
-      <c r="E170" s="4">
+      <c r="E170" s="8">
         <v>0.79196759259259264</v>
       </c>
       <c r="F170" s="3">
         <v>45979</v>
       </c>
-      <c r="G170" s="4">
+      <c r="G170" s="8">
         <v>0.8128009259259259</v>
       </c>
       <c r="H170" s="1">
@@ -7151,13 +7163,13 @@
       <c r="D171" s="3">
         <v>45979</v>
       </c>
-      <c r="E171" s="4">
+      <c r="E171" s="8">
         <v>0.81334490740740739</v>
       </c>
       <c r="F171" s="3">
         <v>45979</v>
       </c>
-      <c r="G171" s="4">
+      <c r="G171" s="8">
         <v>0.83417824074074076</v>
       </c>
       <c r="H171" s="1">
@@ -7190,13 +7202,13 @@
       <c r="D172" s="3">
         <v>45979</v>
       </c>
-      <c r="E172" s="4">
+      <c r="E172" s="8">
         <v>0.83473379629629629</v>
       </c>
       <c r="F172" s="3">
         <v>45979</v>
       </c>
-      <c r="G172" s="4">
+      <c r="G172" s="8">
         <v>0.85556712962962966</v>
       </c>
       <c r="H172" s="1">
@@ -7229,13 +7241,13 @@
       <c r="D173" s="3">
         <v>45979</v>
       </c>
-      <c r="E173" s="4">
+      <c r="E173" s="8">
         <v>0.85612268518518519</v>
       </c>
       <c r="F173" s="3">
         <v>45979</v>
       </c>
-      <c r="G173" s="4">
+      <c r="G173" s="8">
         <v>0.87695601851851857</v>
       </c>
       <c r="H173" s="1">
@@ -7268,13 +7280,13 @@
       <c r="D174" s="3">
         <v>45979</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E174" s="8">
         <v>0.87805555555555559</v>
       </c>
       <c r="F174" s="3">
         <v>45979</v>
       </c>
-      <c r="G174" s="4">
+      <c r="G174" s="8">
         <v>0.89888888888888885</v>
       </c>
       <c r="H174" s="1">
@@ -7307,13 +7319,13 @@
       <c r="D175" s="3">
         <v>45979</v>
       </c>
-      <c r="E175" s="4">
+      <c r="E175" s="8">
         <v>0.89944444444444449</v>
       </c>
       <c r="F175" s="3">
         <v>45979</v>
       </c>
-      <c r="G175" s="4">
+      <c r="G175" s="8">
         <v>0.9029166666666667</v>
       </c>
       <c r="H175" s="1">
@@ -7346,13 +7358,13 @@
       <c r="D176" s="3">
         <v>45979</v>
       </c>
-      <c r="E176" s="4">
+      <c r="E176" s="8">
         <v>0.90347222222222223</v>
       </c>
       <c r="F176" s="3">
         <v>45979</v>
       </c>
-      <c r="G176" s="4">
+      <c r="G176" s="8">
         <v>0.90694444444444444</v>
       </c>
       <c r="H176" s="1">
@@ -7385,13 +7397,13 @@
       <c r="D177" s="3">
         <v>45979</v>
       </c>
-      <c r="E177" s="4">
+      <c r="E177" s="8">
         <v>0.90749999999999997</v>
       </c>
       <c r="F177" s="3">
         <v>45979</v>
       </c>
-      <c r="G177" s="4">
+      <c r="G177" s="8">
         <v>0.91097222222222218</v>
       </c>
       <c r="H177" s="1">
@@ -7424,13 +7436,13 @@
       <c r="D178" s="3">
         <v>45979</v>
       </c>
-      <c r="E178" s="4">
+      <c r="E178" s="8">
         <v>0.91152777777777783</v>
       </c>
       <c r="F178" s="3">
         <v>45979</v>
       </c>
-      <c r="G178" s="4">
+      <c r="G178" s="8">
         <v>0.91847222222222225</v>
       </c>
       <c r="H178" s="1">
@@ -7463,13 +7475,13 @@
       <c r="D179" s="3">
         <v>45979</v>
       </c>
-      <c r="E179" s="4">
+      <c r="E179" s="8">
         <v>0.91902777777777778</v>
       </c>
       <c r="F179" s="3">
         <v>45979</v>
       </c>
-      <c r="G179" s="4">
+      <c r="G179" s="8">
         <v>0.93986111111111115</v>
       </c>
       <c r="H179" s="1">
@@ -7502,13 +7514,13 @@
       <c r="D180" s="3">
         <v>45979</v>
       </c>
-      <c r="E180" s="4">
+      <c r="E180" s="8">
         <v>0.94042824074074072</v>
       </c>
       <c r="F180" s="3">
         <v>45979</v>
       </c>
-      <c r="G180" s="4">
+      <c r="G180" s="8">
         <v>0.94390046296296293</v>
       </c>
       <c r="H180" s="1">
@@ -7541,13 +7553,13 @@
       <c r="D181" s="3">
         <v>45979</v>
       </c>
-      <c r="E181" s="4">
+      <c r="E181" s="8">
         <v>0.94445601851851857</v>
       </c>
       <c r="F181" s="3">
         <v>45979</v>
       </c>
-      <c r="G181" s="4">
+      <c r="G181" s="8">
         <v>0.94792824074074078</v>
       </c>
       <c r="H181" s="1">
@@ -7580,13 +7592,13 @@
       <c r="D182" s="3">
         <v>45979</v>
       </c>
-      <c r="E182" s="4">
+      <c r="E182" s="8">
         <v>0.94847222222222227</v>
       </c>
       <c r="F182" s="3">
         <v>45979</v>
       </c>
-      <c r="G182" s="4">
+      <c r="G182" s="8">
         <v>0.9588888888888889</v>
       </c>
       <c r="H182" s="1">
@@ -7619,13 +7631,13 @@
       <c r="D183" s="3">
         <v>45979</v>
       </c>
-      <c r="E183" s="4">
+      <c r="E183" s="8">
         <v>0.95945601851851847</v>
       </c>
       <c r="F183" s="3">
         <v>45979</v>
       </c>
-      <c r="G183" s="4">
+      <c r="G183" s="8">
         <v>0.98028935185185184</v>
       </c>
       <c r="H183" s="1">
@@ -7658,13 +7670,13 @@
       <c r="D184" s="3">
         <v>45979</v>
       </c>
-      <c r="E184" s="4">
+      <c r="E184" s="8">
         <v>0.98084490740740737</v>
       </c>
       <c r="F184" s="3">
         <v>45980</v>
       </c>
-      <c r="G184" s="4">
+      <c r="G184" s="8">
         <v>1.6782407407407408E-3</v>
       </c>
       <c r="H184" s="1">
@@ -7697,13 +7709,13 @@
       <c r="D185" s="3">
         <v>45980</v>
       </c>
-      <c r="E185" s="4">
+      <c r="E185" s="8">
         <v>2.2337962962962962E-3</v>
       </c>
       <c r="F185" s="3">
         <v>45980</v>
       </c>
-      <c r="G185" s="4">
+      <c r="G185" s="8">
         <v>9.1782407407407403E-3</v>
       </c>
       <c r="H185" s="1">
@@ -7736,13 +7748,13 @@
       <c r="D186" s="3">
         <v>45980</v>
       </c>
-      <c r="E186" s="4">
+      <c r="E186" s="8">
         <v>9.7337962962962959E-3</v>
       </c>
       <c r="F186" s="3">
         <v>45980</v>
       </c>
-      <c r="G186" s="4">
+      <c r="G186" s="8">
         <v>1.3206018518518518E-2</v>
       </c>
       <c r="H186" s="1">
@@ -7775,13 +7787,13 @@
       <c r="D187" s="3">
         <v>45980</v>
       </c>
-      <c r="E187" s="4">
+      <c r="E187" s="8">
         <v>1.3761574074074074E-2</v>
       </c>
       <c r="F187" s="3">
         <v>45980</v>
       </c>
-      <c r="G187" s="4">
+      <c r="G187" s="8">
         <v>3.4594907407407408E-2</v>
       </c>
       <c r="H187" s="1">
@@ -7814,13 +7826,13 @@
       <c r="D188" s="3">
         <v>45980</v>
       </c>
-      <c r="E188" s="4">
+      <c r="E188" s="8">
         <v>3.515046296296296E-2</v>
       </c>
       <c r="F188" s="3">
         <v>45980</v>
       </c>
-      <c r="G188" s="4">
+      <c r="G188" s="8">
         <v>3.8622685185185184E-2</v>
       </c>
       <c r="H188" s="1">
@@ -7853,13 +7865,13 @@
       <c r="D189" s="3">
         <v>45980</v>
       </c>
-      <c r="E189" s="4">
+      <c r="E189" s="8">
         <v>3.9178240740740743E-2</v>
       </c>
       <c r="F189" s="3">
         <v>45980</v>
       </c>
-      <c r="G189" s="4">
+      <c r="G189" s="8">
         <v>4.9594907407407407E-2</v>
       </c>
       <c r="H189" s="1">
@@ -7892,13 +7904,13 @@
       <c r="D190" s="3">
         <v>45980</v>
       </c>
-      <c r="E190" s="4">
+      <c r="E190" s="8">
         <v>5.0254629629629628E-2</v>
       </c>
       <c r="F190" s="3">
         <v>45980</v>
       </c>
-      <c r="G190" s="4">
+      <c r="G190" s="8">
         <v>5.3726851851851852E-2</v>
       </c>
       <c r="H190" s="1">
@@ -7931,13 +7943,13 @@
       <c r="D191" s="3">
         <v>45980</v>
       </c>
-      <c r="E191" s="4">
+      <c r="E191" s="8">
         <v>5.4293981481481485E-2</v>
       </c>
       <c r="F191" s="3">
         <v>45980</v>
       </c>
-      <c r="G191" s="4">
+      <c r="G191" s="8">
         <v>6.1238425925925925E-2</v>
       </c>
       <c r="H191" s="1">
@@ -7970,13 +7982,13 @@
       <c r="D192" s="3">
         <v>45980</v>
       </c>
-      <c r="E192" s="4">
+      <c r="E192" s="8">
         <v>6.1793981481481484E-2</v>
       </c>
       <c r="F192" s="3">
         <v>45980</v>
       </c>
-      <c r="G192" s="4">
+      <c r="G192" s="8">
         <v>7.2210648148148149E-2</v>
       </c>
       <c r="H192" s="1">
@@ -8009,13 +8021,13 @@
       <c r="D193" s="3">
         <v>45980</v>
       </c>
-      <c r="E193" s="4">
+      <c r="E193" s="8">
         <v>7.2766203703703708E-2</v>
       </c>
       <c r="F193" s="3">
         <v>45980</v>
       </c>
-      <c r="G193" s="4">
+      <c r="G193" s="8">
         <v>9.3599537037037037E-2</v>
       </c>
       <c r="H193" s="1">
@@ -8048,13 +8060,13 @@
       <c r="D194" s="3">
         <v>45980</v>
       </c>
-      <c r="E194" s="4">
+      <c r="E194" s="8">
         <v>9.4155092592592596E-2</v>
       </c>
       <c r="F194" s="3">
         <v>45980</v>
       </c>
-      <c r="G194" s="4">
+      <c r="G194" s="8">
         <v>0.11498842592592592</v>
       </c>
       <c r="H194" s="1">
@@ -8087,13 +8099,13 @@
       <c r="D195" s="3">
         <v>45980</v>
       </c>
-      <c r="E195" s="4">
+      <c r="E195" s="8">
         <v>0.11554398148148148</v>
       </c>
       <c r="F195" s="3">
         <v>45980</v>
       </c>
-      <c r="G195" s="4">
+      <c r="G195" s="8">
         <v>0.12248842592592593</v>
       </c>
       <c r="H195" s="1">
@@ -8126,13 +8138,13 @@
       <c r="D196" s="3">
         <v>45980</v>
       </c>
-      <c r="E196" s="4">
+      <c r="E196" s="8">
         <v>0.12313657407407408</v>
       </c>
       <c r="F196" s="3">
         <v>45980</v>
       </c>
-      <c r="G196" s="4">
+      <c r="G196" s="8">
         <v>0.13008101851851853</v>
       </c>
       <c r="H196" s="1">
@@ -8165,13 +8177,13 @@
       <c r="D197" s="3">
         <v>45980</v>
       </c>
-      <c r="E197" s="4">
+      <c r="E197" s="8">
         <v>0.13065972222222222</v>
       </c>
       <c r="F197" s="3">
         <v>45980</v>
       </c>
-      <c r="G197" s="4">
+      <c r="G197" s="8">
         <v>0.13760416666666667</v>
       </c>
       <c r="H197" s="1">
@@ -8204,13 +8216,13 @@
       <c r="D198" s="3">
         <v>45980</v>
       </c>
-      <c r="E198" s="4">
+      <c r="E198" s="8">
         <v>0.13836805555555556</v>
       </c>
       <c r="F198" s="3">
         <v>45980</v>
       </c>
-      <c r="G198" s="4">
+      <c r="G198" s="8">
         <v>0.14878472222222222</v>
       </c>
       <c r="H198" s="1">
@@ -8243,13 +8255,13 @@
       <c r="D199" s="3">
         <v>45980</v>
       </c>
-      <c r="E199" s="4">
+      <c r="E199" s="8">
         <v>0.14934027777777778</v>
       </c>
       <c r="F199" s="3">
         <v>45980</v>
       </c>
-      <c r="G199" s="4">
+      <c r="G199" s="8">
         <v>0.15975694444444444</v>
       </c>
       <c r="H199" s="1">
@@ -8282,13 +8294,13 @@
       <c r="D200" s="3">
         <v>45980</v>
       </c>
-      <c r="E200" s="4">
+      <c r="E200" s="8">
         <v>0.16032407407407406</v>
       </c>
       <c r="F200" s="3">
         <v>45980</v>
       </c>
-      <c r="G200" s="4">
+      <c r="G200" s="8">
         <v>0.18115740740740741</v>
       </c>
       <c r="H200" s="1">
@@ -8321,13 +8333,13 @@
       <c r="D201" s="3">
         <v>45980</v>
       </c>
-      <c r="E201" s="4">
+      <c r="E201" s="8">
         <v>0.18172453703703703</v>
       </c>
       <c r="F201" s="3">
         <v>45980</v>
       </c>
-      <c r="G201" s="4">
+      <c r="G201" s="8">
         <v>0.18866898148148148</v>
       </c>
       <c r="H201" s="1">
@@ -8360,13 +8372,13 @@
       <c r="D202" s="3">
         <v>45980</v>
       </c>
-      <c r="E202" s="4">
+      <c r="E202" s="8">
         <v>0.18922453703703704</v>
       </c>
       <c r="F202" s="3">
         <v>45980</v>
       </c>
-      <c r="G202" s="4">
+      <c r="G202" s="8">
         <v>0.19616898148148149</v>
       </c>
       <c r="H202" s="1">
@@ -8399,13 +8411,13 @@
       <c r="D203" s="3">
         <v>45980</v>
       </c>
-      <c r="E203" s="4">
+      <c r="E203" s="8">
         <v>0.19673611111111111</v>
       </c>
       <c r="F203" s="3">
         <v>45980</v>
       </c>
-      <c r="G203" s="4">
+      <c r="G203" s="8">
         <v>0.20715277777777777</v>
       </c>
       <c r="H203" s="1">
@@ -8438,13 +8450,13 @@
       <c r="D204" s="3">
         <v>45980</v>
       </c>
-      <c r="E204" s="4">
+      <c r="E204" s="8">
         <v>0.20770833333333333</v>
       </c>
       <c r="F204" s="3">
         <v>45980</v>
       </c>
-      <c r="G204" s="4">
+      <c r="G204" s="8">
         <v>0.21812500000000001</v>
       </c>
       <c r="H204" s="1">
@@ -8477,13 +8489,13 @@
       <c r="D205" s="3">
         <v>45980</v>
       </c>
-      <c r="E205" s="4">
+      <c r="E205" s="8">
         <v>0.21868055555555554</v>
       </c>
       <c r="F205" s="3">
         <v>45980</v>
       </c>
-      <c r="G205" s="4">
+      <c r="G205" s="8">
         <v>0.22562499999999999</v>
       </c>
       <c r="H205" s="1">
@@ -8516,13 +8528,13 @@
       <c r="D206" s="3">
         <v>45980</v>
       </c>
-      <c r="E206" s="4">
+      <c r="E206" s="8">
         <v>0.22619212962962962</v>
       </c>
       <c r="F206" s="3">
         <v>45980</v>
       </c>
-      <c r="G206" s="4">
+      <c r="G206" s="8">
         <v>0.23313657407407407</v>
       </c>
       <c r="H206" s="1">
@@ -8555,13 +8567,13 @@
       <c r="D207" s="3">
         <v>45980</v>
       </c>
-      <c r="E207" s="4">
+      <c r="E207" s="8">
         <v>0.23369212962962962</v>
       </c>
       <c r="F207" s="3">
         <v>45980</v>
       </c>
-      <c r="G207" s="4">
+      <c r="G207" s="8">
         <v>0.24410879629629631</v>
       </c>
       <c r="H207" s="1">
@@ -8594,13 +8606,13 @@
       <c r="D208" s="3">
         <v>45980</v>
       </c>
-      <c r="E208" s="4">
+      <c r="E208" s="8">
         <v>0.24466435185185184</v>
       </c>
       <c r="F208" s="3">
         <v>45980</v>
       </c>
-      <c r="G208" s="4">
+      <c r="G208" s="8">
         <v>0.26549768518518518</v>
       </c>
       <c r="H208" s="1">
@@ -8633,13 +8645,13 @@
       <c r="D209" s="3">
         <v>45980</v>
       </c>
-      <c r="E209" s="4">
+      <c r="E209" s="8">
         <v>0.26605324074074072</v>
       </c>
       <c r="F209" s="3">
         <v>45980</v>
       </c>
-      <c r="G209" s="4">
+      <c r="G209" s="8">
         <v>0.28688657407407409</v>
       </c>
       <c r="H209" s="1">
@@ -8672,13 +8684,13 @@
       <c r="D210" s="3">
         <v>45980</v>
       </c>
-      <c r="E210" s="4">
+      <c r="E210" s="8">
         <v>0.28745370370370371</v>
       </c>
       <c r="F210" s="3">
         <v>45980</v>
       </c>
-      <c r="G210" s="4">
+      <c r="G210" s="8">
         <v>0.29092592592592592</v>
       </c>
       <c r="H210" s="1">
@@ -8711,13 +8723,13 @@
       <c r="D211" s="3">
         <v>45980</v>
       </c>
-      <c r="E211" s="4">
+      <c r="E211" s="8">
         <v>0.29149305555555555</v>
       </c>
       <c r="F211" s="3">
         <v>45980</v>
       </c>
-      <c r="G211" s="4">
+      <c r="G211" s="8">
         <v>0.30190972222222223</v>
       </c>
       <c r="H211" s="1">
@@ -8750,13 +8762,13 @@
       <c r="D212" s="3">
         <v>45980</v>
       </c>
-      <c r="E212" s="4">
+      <c r="E212" s="8">
         <v>0.30247685185185186</v>
       </c>
       <c r="F212" s="3">
         <v>45980</v>
       </c>
-      <c r="G212" s="4">
+      <c r="G212" s="8">
         <v>0.30594907407407407</v>
       </c>
       <c r="H212" s="1">
@@ -8789,13 +8801,13 @@
       <c r="D213" s="3">
         <v>45980</v>
       </c>
-      <c r="E213" s="4">
+      <c r="E213" s="8">
         <v>0.30650462962962965</v>
       </c>
       <c r="F213" s="3">
         <v>45980</v>
       </c>
-      <c r="G213" s="4">
+      <c r="G213" s="8">
         <v>0.30997685185185186</v>
       </c>
       <c r="H213" s="1">
@@ -8828,13 +8840,13 @@
       <c r="D214" s="3">
         <v>45980</v>
       </c>
-      <c r="E214" s="4">
+      <c r="E214" s="8">
         <v>0.3105324074074074</v>
       </c>
       <c r="F214" s="3">
         <v>45980</v>
       </c>
-      <c r="G214" s="4">
+      <c r="G214" s="8">
         <v>0.31400462962962961</v>
       </c>
       <c r="H214" s="1">
@@ -8867,13 +8879,13 @@
       <c r="D215" s="3">
         <v>45980</v>
       </c>
-      <c r="E215" s="4">
+      <c r="E215" s="8">
         <v>0.31457175925925923</v>
       </c>
       <c r="F215" s="3">
         <v>45980</v>
       </c>
-      <c r="G215" s="4">
+      <c r="G215" s="8">
         <v>0.32151620370370371</v>
       </c>
       <c r="H215" s="1">
@@ -8906,13 +8918,13 @@
       <c r="D216" s="3">
         <v>45980</v>
       </c>
-      <c r="E216" s="4">
+      <c r="E216" s="8">
         <v>0.32207175925925924</v>
       </c>
       <c r="F216" s="3">
         <v>45980</v>
       </c>
-      <c r="G216" s="4">
+      <c r="G216" s="8">
         <v>0.3255439814814815</v>
       </c>
       <c r="H216" s="1">
@@ -8945,13 +8957,13 @@
       <c r="D217" s="3">
         <v>45980</v>
       </c>
-      <c r="E217" s="4">
+      <c r="E217" s="8">
         <v>0.32609953703703703</v>
       </c>
       <c r="F217" s="3">
         <v>45980</v>
       </c>
-      <c r="G217" s="4">
+      <c r="G217" s="8">
         <v>0.32957175925925924</v>
       </c>
       <c r="H217" s="1">
@@ -8984,13 +8996,13 @@
       <c r="D218" s="3">
         <v>45980</v>
       </c>
-      <c r="E218" s="4">
+      <c r="E218" s="8">
         <v>0.33012731481481483</v>
       </c>
       <c r="F218" s="3">
         <v>45980</v>
       </c>
-      <c r="G218" s="4">
+      <c r="G218" s="8">
         <v>0.33359953703703704</v>
       </c>
       <c r="H218" s="1">
@@ -9023,13 +9035,13 @@
       <c r="D219" s="3">
         <v>45980</v>
       </c>
-      <c r="E219" s="4">
+      <c r="E219" s="8">
         <v>0.33416666666666667</v>
       </c>
       <c r="F219" s="3">
         <v>45980</v>
       </c>
-      <c r="G219" s="4">
+      <c r="G219" s="8">
         <v>0.33763888888888888</v>
       </c>
       <c r="H219" s="1">
@@ -9062,13 +9074,13 @@
       <c r="D220" s="3">
         <v>45980</v>
       </c>
-      <c r="E220" s="4">
+      <c r="E220" s="8">
         <v>0.33819444444444446</v>
       </c>
       <c r="F220" s="3">
         <v>45980</v>
       </c>
-      <c r="G220" s="4">
+      <c r="G220" s="8">
         <v>0.34513888888888888</v>
       </c>
       <c r="H220" s="1">
@@ -9101,13 +9113,13 @@
       <c r="D221" s="3">
         <v>45980</v>
       </c>
-      <c r="E221" s="4">
+      <c r="E221" s="8">
         <v>0.34569444444444447</v>
       </c>
       <c r="F221" s="3">
         <v>45980</v>
       </c>
-      <c r="G221" s="4">
+      <c r="G221" s="8">
         <v>0.34916666666666668</v>
       </c>
       <c r="H221" s="1">
@@ -9140,13 +9152,13 @@
       <c r="D222" s="3">
         <v>45980</v>
       </c>
-      <c r="E222" s="4">
+      <c r="E222" s="8">
         <v>0.34973379629629631</v>
       </c>
       <c r="F222" s="3">
         <v>45980</v>
       </c>
-      <c r="G222" s="4">
+      <c r="G222" s="8">
         <v>0.35667824074074073</v>
       </c>
       <c r="H222" s="1">
@@ -9179,13 +9191,13 @@
       <c r="D223" s="3">
         <v>45980</v>
       </c>
-      <c r="E223" s="4">
+      <c r="E223" s="8">
         <v>0.35723379629629631</v>
       </c>
       <c r="F223" s="3">
         <v>45980</v>
       </c>
-      <c r="G223" s="4">
+      <c r="G223" s="8">
         <v>0.36417824074074073</v>
       </c>
       <c r="H223" s="1">
@@ -9218,13 +9230,13 @@
       <c r="D224" s="3">
         <v>45980</v>
       </c>
-      <c r="E224" s="4">
+      <c r="E224" s="8">
         <v>0.36474537037037036</v>
       </c>
       <c r="F224" s="3">
         <v>45980</v>
       </c>
-      <c r="G224" s="4">
+      <c r="G224" s="8">
         <v>0.37168981481481483</v>
       </c>
       <c r="H224" s="1">
@@ -9257,13 +9269,13 @@
       <c r="D225" s="3">
         <v>45980</v>
       </c>
-      <c r="E225" s="4">
+      <c r="E225" s="8">
         <v>0.37224537037037037</v>
       </c>
       <c r="F225" s="3">
         <v>45980</v>
       </c>
-      <c r="G225" s="4">
+      <c r="G225" s="8">
         <v>0.38266203703703705</v>
       </c>
       <c r="H225" s="1">
@@ -9296,13 +9308,13 @@
       <c r="D226" s="3">
         <v>45980</v>
       </c>
-      <c r="E226" s="4">
+      <c r="E226" s="8">
         <v>0.38321759259259258</v>
       </c>
       <c r="F226" s="3">
         <v>45980</v>
       </c>
-      <c r="G226" s="4">
+      <c r="G226" s="8">
         <v>0.39016203703703706</v>
       </c>
       <c r="H226" s="1">
@@ -9335,13 +9347,13 @@
       <c r="D227" s="3">
         <v>45980</v>
       </c>
-      <c r="E227" s="4">
+      <c r="E227" s="8">
         <v>0.39072916666666668</v>
       </c>
       <c r="F227" s="3">
         <v>45980</v>
       </c>
-      <c r="G227" s="4">
+      <c r="G227" s="8">
         <v>0.40114583333333331</v>
       </c>
       <c r="H227" s="1">
@@ -9374,13 +9386,13 @@
       <c r="D228" s="3">
         <v>45980</v>
       </c>
-      <c r="E228" s="4">
+      <c r="E228" s="8">
         <v>0.4017013888888889</v>
       </c>
       <c r="F228" s="3">
         <v>45980</v>
       </c>
-      <c r="G228" s="4">
+      <c r="G228" s="8">
         <v>0.40517361111111111</v>
       </c>
       <c r="H228" s="1">
@@ -9413,13 +9425,13 @@
       <c r="D229" s="3">
         <v>45980</v>
       </c>
-      <c r="E229" s="4">
+      <c r="E229" s="8">
         <v>0.40574074074074074</v>
       </c>
       <c r="F229" s="3">
         <v>45980</v>
       </c>
-      <c r="G229" s="4">
+      <c r="G229" s="8">
         <v>0.41268518518518521</v>
       </c>
       <c r="H229" s="1">
@@ -9452,13 +9464,13 @@
       <c r="D230" s="3">
         <v>45980</v>
       </c>
-      <c r="E230" s="4">
+      <c r="E230" s="8">
         <v>0.41324074074074074</v>
       </c>
       <c r="F230" s="3">
         <v>45980</v>
       </c>
-      <c r="G230" s="4">
+      <c r="G230" s="8">
         <v>0.42018518518518516</v>
       </c>
       <c r="H230" s="1">
@@ -9491,13 +9503,13 @@
       <c r="D231" s="3">
         <v>45980</v>
       </c>
-      <c r="E231" s="4">
+      <c r="E231" s="8">
         <v>0.42075231481481479</v>
       </c>
       <c r="F231" s="3">
         <v>45980</v>
       </c>
-      <c r="G231" s="4">
+      <c r="G231" s="8">
         <v>0.43116898148148147</v>
       </c>
       <c r="H231" s="1">
@@ -9530,13 +9542,13 @@
       <c r="D232" s="3">
         <v>45980</v>
       </c>
-      <c r="E232" s="4">
+      <c r="E232" s="8">
         <v>0.4317361111111111</v>
       </c>
       <c r="F232" s="3">
         <v>45980</v>
       </c>
-      <c r="G232" s="4">
+      <c r="G232" s="8">
         <v>0.44215277777777778</v>
       </c>
       <c r="H232" s="1">
@@ -9569,13 +9581,13 @@
       <c r="D233" s="3">
         <v>45980</v>
       </c>
-      <c r="E233" s="4">
+      <c r="E233" s="8">
         <v>0.44270833333333331</v>
       </c>
       <c r="F233" s="3">
         <v>45980</v>
       </c>
-      <c r="G233" s="4">
+      <c r="G233" s="8">
         <v>0.453125</v>
       </c>
       <c r="H233" s="1">
@@ -9608,13 +9620,13 @@
       <c r="D234" s="3">
         <v>45980</v>
       </c>
-      <c r="E234" s="4">
+      <c r="E234" s="8">
         <v>0.45369212962962963</v>
       </c>
       <c r="F234" s="3">
         <v>45980</v>
       </c>
-      <c r="G234" s="4">
+      <c r="G234" s="8">
         <v>0.46410879629629631</v>
       </c>
       <c r="H234" s="1">
@@ -9647,13 +9659,13 @@
       <c r="D235" s="3">
         <v>45980</v>
       </c>
-      <c r="E235" s="4">
+      <c r="E235" s="8">
         <v>0.46467592592592594</v>
       </c>
       <c r="F235" s="3">
         <v>45980</v>
       </c>
-      <c r="G235" s="4">
+      <c r="G235" s="8">
         <v>0.48550925925925925</v>
       </c>
       <c r="H235" s="1">
@@ -9686,13 +9698,13 @@
       <c r="D236" s="3">
         <v>45980</v>
       </c>
-      <c r="E236" s="4">
+      <c r="E236" s="8">
         <v>0.48607638888888888</v>
       </c>
       <c r="F236" s="3">
         <v>45980</v>
       </c>
-      <c r="G236" s="4">
+      <c r="G236" s="8">
         <v>0.50690972222222219</v>
       </c>
       <c r="H236" s="1">
@@ -9725,13 +9737,13 @@
       <c r="D237" s="3">
         <v>45980</v>
       </c>
-      <c r="E237" s="4">
+      <c r="E237" s="8">
         <v>0.50747685185185187</v>
       </c>
       <c r="F237" s="3">
         <v>45980</v>
       </c>
-      <c r="G237" s="4">
+      <c r="G237" s="8">
         <v>0.52831018518518513</v>
       </c>
       <c r="H237" s="1">
@@ -9764,13 +9776,13 @@
       <c r="D238" s="3">
         <v>45980</v>
       </c>
-      <c r="E238" s="4">
+      <c r="E238" s="8">
         <v>0.52888888888888885</v>
       </c>
       <c r="F238" s="3">
         <v>45980</v>
       </c>
-      <c r="G238" s="4">
+      <c r="G238" s="8">
         <v>0.53930555555555559</v>
       </c>
       <c r="H238" s="1">
@@ -9803,13 +9815,13 @@
       <c r="D239" s="3">
         <v>45980</v>
       </c>
-      <c r="E239" s="4">
+      <c r="E239" s="8">
         <v>0.53987268518518516</v>
       </c>
       <c r="F239" s="3">
         <v>45980</v>
       </c>
-      <c r="G239" s="4">
+      <c r="G239" s="8">
         <v>0.54334490740740737</v>
       </c>
       <c r="H239" s="1">
@@ -9842,13 +9854,13 @@
       <c r="D240" s="3">
         <v>45980</v>
       </c>
-      <c r="E240" s="4">
+      <c r="E240" s="8">
         <v>0.54392361111111109</v>
       </c>
       <c r="F240" s="3">
         <v>45980</v>
       </c>
-      <c r="G240" s="4">
+      <c r="G240" s="8">
         <v>0.55086805555555551</v>
       </c>
       <c r="H240" s="1">
@@ -9881,13 +9893,13 @@
       <c r="D241" s="3">
         <v>45980</v>
       </c>
-      <c r="E241" s="4">
+      <c r="E241" s="8">
         <v>0.55144675925925923</v>
       </c>
       <c r="F241" s="3">
         <v>45980</v>
       </c>
-      <c r="G241" s="4">
+      <c r="G241" s="8">
         <v>0.55491898148148144</v>
       </c>
       <c r="H241" s="1">
@@ -9920,13 +9932,13 @@
       <c r="D242" s="3">
         <v>45980</v>
       </c>
-      <c r="E242" s="4">
+      <c r="E242" s="8">
         <v>0.55547453703703709</v>
       </c>
       <c r="F242" s="3">
         <v>45980</v>
       </c>
-      <c r="G242" s="4">
+      <c r="G242" s="8">
         <v>0.56241898148148151</v>
       </c>
       <c r="H242" s="1">
@@ -9959,13 +9971,13 @@
       <c r="D243" s="3">
         <v>45980</v>
       </c>
-      <c r="E243" s="4">
+      <c r="E243" s="8">
         <v>0.56299768518518523</v>
       </c>
       <c r="F243" s="3">
         <v>45980</v>
       </c>
-      <c r="G243" s="4">
+      <c r="G243" s="8">
         <v>0.56994212962962965</v>
       </c>
       <c r="H243" s="1">
@@ -9998,13 +10010,13 @@
       <c r="D244" s="3">
         <v>45980</v>
       </c>
-      <c r="E244" s="4">
+      <c r="E244" s="8">
         <v>0.57050925925925922</v>
       </c>
       <c r="F244" s="3">
         <v>45980</v>
       </c>
-      <c r="G244" s="4">
+      <c r="G244" s="8">
         <v>0.57745370370370375</v>
       </c>
       <c r="H244" s="1">
@@ -10037,13 +10049,13 @@
       <c r="D245" s="3">
         <v>45980</v>
       </c>
-      <c r="E245" s="4">
+      <c r="E245" s="8">
         <v>0.57803240740740736</v>
       </c>
       <c r="F245" s="3">
         <v>45980</v>
       </c>
-      <c r="G245" s="4">
+      <c r="G245" s="8">
         <v>0.58497685185185189</v>
       </c>
       <c r="H245" s="1">
@@ -10076,13 +10088,13 @@
       <c r="D246" s="3">
         <v>45980</v>
       </c>
-      <c r="E246" s="4">
+      <c r="E246" s="8">
         <v>0.58554398148148146</v>
       </c>
       <c r="F246" s="3">
         <v>45980</v>
       </c>
-      <c r="G246" s="4">
+      <c r="G246" s="8">
         <v>0.59248842592592588</v>
       </c>
       <c r="H246" s="1">
@@ -10115,13 +10127,13 @@
       <c r="D247" s="3">
         <v>45980</v>
       </c>
-      <c r="E247" s="4">
+      <c r="E247" s="8">
         <v>0.59307870370370375</v>
       </c>
       <c r="F247" s="3">
         <v>45980</v>
       </c>
-      <c r="G247" s="4">
+      <c r="G247" s="8">
         <v>0.61391203703703701</v>
       </c>
       <c r="H247" s="1">
@@ -10154,13 +10166,13 @@
       <c r="D248" s="3">
         <v>45980</v>
       </c>
-      <c r="E248" s="4">
+      <c r="E248" s="8">
         <v>0.61447916666666669</v>
       </c>
       <c r="F248" s="3">
         <v>45980</v>
       </c>
-      <c r="G248" s="4">
+      <c r="G248" s="8">
         <v>0.63531249999999995</v>
       </c>
       <c r="H248" s="1">
@@ -10193,13 +10205,13 @@
       <c r="D249" s="3">
         <v>45980</v>
       </c>
-      <c r="E249" s="4">
+      <c r="E249" s="8">
         <v>0.63586805555555559</v>
       </c>
       <c r="F249" s="3">
         <v>45980</v>
       </c>
-      <c r="G249" s="4">
+      <c r="G249" s="8">
         <v>0.64628472222222222</v>
       </c>
       <c r="H249" s="1">
@@ -10232,13 +10244,13 @@
       <c r="D250" s="3">
         <v>45980</v>
       </c>
-      <c r="E250" s="4">
+      <c r="E250" s="8">
         <v>0.64686342592592594</v>
       </c>
       <c r="F250" s="3">
         <v>45980</v>
       </c>
-      <c r="G250" s="4">
+      <c r="G250" s="8">
         <v>0.65380787037037036</v>
       </c>
       <c r="H250" s="1">
@@ -10271,13 +10283,13 @@
       <c r="D251" s="3">
         <v>45980</v>
       </c>
-      <c r="E251" s="4">
+      <c r="E251" s="8">
         <v>0.65437500000000004</v>
       </c>
       <c r="F251" s="3">
         <v>45980</v>
       </c>
-      <c r="G251" s="4">
+      <c r="G251" s="8">
         <v>0.66131944444444446</v>
       </c>
       <c r="H251" s="1">
@@ -10310,13 +10322,13 @@
       <c r="D252" s="3">
         <v>45980</v>
       </c>
-      <c r="E252" s="4">
+      <c r="E252" s="8">
         <v>0.66188657407407403</v>
       </c>
       <c r="F252" s="3">
         <v>45980</v>
       </c>
-      <c r="G252" s="4">
+      <c r="G252" s="8">
         <v>0.66535879629629635</v>
       </c>
       <c r="H252" s="1">
@@ -10349,13 +10361,13 @@
       <c r="D253" s="3">
         <v>45980</v>
       </c>
-      <c r="E253" s="4">
+      <c r="E253" s="8">
         <v>0.66593749999999996</v>
       </c>
       <c r="F253" s="3">
         <v>45980</v>
       </c>
-      <c r="G253" s="4">
+      <c r="G253" s="8">
         <v>0.66940972222222217</v>
       </c>
       <c r="H253" s="1">
@@ -10388,13 +10400,13 @@
       <c r="D254" s="3">
         <v>45980</v>
       </c>
-      <c r="E254" s="4">
+      <c r="E254" s="8">
         <v>0.66997685185185185</v>
       </c>
       <c r="F254" s="3">
         <v>45980</v>
       </c>
-      <c r="G254" s="4">
+      <c r="G254" s="8">
         <v>0.67344907407407406</v>
       </c>
       <c r="H254" s="1">
@@ -10427,13 +10439,13 @@
       <c r="D255" s="3">
         <v>45980</v>
       </c>
-      <c r="E255" s="4">
+      <c r="E255" s="8">
         <v>0.67402777777777778</v>
       </c>
       <c r="F255" s="3">
         <v>45980</v>
       </c>
-      <c r="G255" s="4">
+      <c r="G255" s="8">
         <v>0.6809722222222222</v>
       </c>
       <c r="H255" s="1">
@@ -10466,13 +10478,13 @@
       <c r="D256" s="3">
         <v>45980</v>
       </c>
-      <c r="E256" s="4">
+      <c r="E256" s="8">
         <v>0.68155092592592592</v>
       </c>
       <c r="F256" s="3">
         <v>45980</v>
       </c>
-      <c r="G256" s="4">
+      <c r="G256" s="8">
         <v>0.69196759259259255</v>
       </c>
       <c r="H256" s="1">
@@ -10505,13 +10517,13 @@
       <c r="D257" s="3">
         <v>45980</v>
       </c>
-      <c r="E257" s="4">
+      <c r="E257" s="8">
         <v>0.69253472222222223</v>
       </c>
       <c r="F257" s="3">
         <v>45980</v>
       </c>
-      <c r="G257" s="4">
+      <c r="G257" s="8">
         <v>0.70295138888888886</v>
       </c>
       <c r="H257" s="1">
@@ -10544,13 +10556,13 @@
       <c r="D258" s="3">
         <v>45980</v>
       </c>
-      <c r="E258" s="4">
+      <c r="E258" s="8">
         <v>0.70351851851851854</v>
       </c>
       <c r="F258" s="3">
         <v>45980</v>
       </c>
-      <c r="G258" s="4">
+      <c r="G258" s="8">
         <v>0.71046296296296296</v>
       </c>
       <c r="H258" s="1">
@@ -10583,13 +10595,13 @@
       <c r="D259" s="3">
         <v>45980</v>
       </c>
-      <c r="E259" s="4">
+      <c r="E259" s="8">
         <v>0.71103009259259264</v>
       </c>
       <c r="F259" s="3">
         <v>45980</v>
       </c>
-      <c r="G259" s="4">
+      <c r="G259" s="8">
         <v>0.71797453703703706</v>
       </c>
       <c r="H259" s="1">
@@ -10622,13 +10634,13 @@
       <c r="D260" s="3">
         <v>45980</v>
       </c>
-      <c r="E260" s="4">
+      <c r="E260" s="8">
         <v>0.71854166666666663</v>
       </c>
       <c r="F260" s="3">
         <v>45980</v>
       </c>
-      <c r="G260" s="4">
+      <c r="G260" s="8">
         <v>0.72895833333333337</v>
       </c>
       <c r="H260" s="1">
@@ -10661,13 +10673,13 @@
       <c r="D261" s="3">
         <v>45980</v>
       </c>
-      <c r="E261" s="4">
+      <c r="E261" s="8">
         <v>0.72957175925925921</v>
       </c>
       <c r="F261" s="3">
         <v>45980</v>
       </c>
-      <c r="G261" s="4">
+      <c r="G261" s="8">
         <v>0.73304398148148153</v>
       </c>
       <c r="H261" s="1">
@@ -10700,13 +10712,13 @@
       <c r="D262" s="3">
         <v>45980</v>
       </c>
-      <c r="E262" s="4">
+      <c r="E262" s="8">
         <v>0.7336111111111111</v>
       </c>
       <c r="F262" s="3">
         <v>45980</v>
       </c>
-      <c r="G262" s="4">
+      <c r="G262" s="8">
         <v>0.74402777777777773</v>
       </c>
       <c r="H262" s="1">
@@ -10739,13 +10751,13 @@
       <c r="D263" s="3">
         <v>45980</v>
       </c>
-      <c r="E263" s="4">
+      <c r="E263" s="8">
         <v>0.74459490740740741</v>
       </c>
       <c r="F263" s="3">
         <v>45980</v>
       </c>
-      <c r="G263" s="4">
+      <c r="G263" s="8">
         <v>0.75153935185185183</v>
       </c>
       <c r="H263" s="1">
@@ -10778,13 +10790,13 @@
       <c r="D264" s="3">
         <v>45980</v>
       </c>
-      <c r="E264" s="4">
+      <c r="E264" s="8">
         <v>0.75209490740740736</v>
       </c>
       <c r="F264" s="3">
         <v>45980</v>
       </c>
-      <c r="G264" s="4">
+      <c r="G264" s="8">
         <v>0.76251157407407411</v>
       </c>
       <c r="H264" s="1">
@@ -10817,13 +10829,13 @@
       <c r="D265" s="3">
         <v>45980</v>
       </c>
-      <c r="E265" s="4">
+      <c r="E265" s="8">
         <v>0.76306712962962964</v>
       </c>
       <c r="F265" s="3">
         <v>45980</v>
       </c>
-      <c r="G265" s="4">
+      <c r="G265" s="8">
         <v>0.77348379629629627</v>
       </c>
       <c r="H265" s="1">
@@ -10856,13 +10868,13 @@
       <c r="D266" s="3">
         <v>45980</v>
       </c>
-      <c r="E266" s="4">
+      <c r="E266" s="8">
         <v>0.77479166666666666</v>
       </c>
       <c r="F266" s="3">
         <v>45980</v>
       </c>
-      <c r="G266" s="4">
+      <c r="G266" s="8">
         <v>0.77826388888888887</v>
       </c>
       <c r="H266" s="1">
@@ -10895,13 +10907,13 @@
       <c r="D267" s="3">
         <v>45980</v>
       </c>
-      <c r="E267" s="4">
+      <c r="E267" s="8">
         <v>0.79196759259259264</v>
       </c>
       <c r="F267" s="3">
         <v>45980</v>
       </c>
-      <c r="G267" s="4">
+      <c r="G267" s="8">
         <v>0.80238425925925927</v>
       </c>
       <c r="H267" s="1">
@@ -10934,13 +10946,13 @@
       <c r="D268" s="3">
         <v>45980</v>
       </c>
-      <c r="E268" s="4">
+      <c r="E268" s="8">
         <v>0.8029398148148148</v>
       </c>
       <c r="F268" s="3">
         <v>45980</v>
       </c>
-      <c r="G268" s="4">
+      <c r="G268" s="8">
         <v>0.81335648148148143</v>
       </c>
       <c r="H268" s="1">
@@ -10973,13 +10985,13 @@
       <c r="D269" s="3">
         <v>45980</v>
       </c>
-      <c r="E269" s="4">
+      <c r="E269" s="8">
         <v>0.81391203703703707</v>
       </c>
       <c r="F269" s="3">
         <v>45980</v>
       </c>
-      <c r="G269" s="4">
+      <c r="G269" s="8">
         <v>0.8243287037037037</v>
       </c>
       <c r="H269" s="1">
@@ -11012,13 +11024,13 @@
       <c r="D270" s="3">
         <v>45980</v>
       </c>
-      <c r="E270" s="4">
+      <c r="E270" s="8">
         <v>0.82489583333333338</v>
       </c>
       <c r="F270" s="3">
         <v>45980</v>
       </c>
-      <c r="G270" s="4">
+      <c r="G270" s="8">
         <v>0.8318402777777778</v>
       </c>
       <c r="H270" s="1">
@@ -11051,13 +11063,13 @@
       <c r="D271" s="3">
         <v>45980</v>
       </c>
-      <c r="E271" s="4">
+      <c r="E271" s="8">
         <v>0.83239583333333333</v>
       </c>
       <c r="F271" s="3">
         <v>45980</v>
       </c>
-      <c r="G271" s="4">
+      <c r="G271" s="8">
         <v>0.83586805555555554</v>
       </c>
       <c r="H271" s="1">
@@ -11090,13 +11102,13 @@
       <c r="D272" s="3">
         <v>45980</v>
       </c>
-      <c r="E272" s="4">
+      <c r="E272" s="8">
         <v>0.83643518518518523</v>
       </c>
       <c r="F272" s="3">
         <v>45980</v>
       </c>
-      <c r="G272" s="4">
+      <c r="G272" s="8">
         <v>0.84337962962962965</v>
       </c>
       <c r="H272" s="1">
@@ -11129,13 +11141,13 @@
       <c r="D273" s="3">
         <v>45980</v>
       </c>
-      <c r="E273" s="4">
+      <c r="E273" s="8">
         <v>0.84393518518518518</v>
       </c>
       <c r="F273" s="3">
         <v>45980</v>
       </c>
-      <c r="G273" s="4">
+      <c r="G273" s="8">
         <v>0.8508796296296296</v>
       </c>
       <c r="H273" s="1">
@@ -11168,13 +11180,13 @@
       <c r="D274" s="3">
         <v>45980</v>
       </c>
-      <c r="E274" s="4">
+      <c r="E274" s="8">
         <v>0.85143518518518524</v>
       </c>
       <c r="F274" s="3">
         <v>45980</v>
       </c>
-      <c r="G274" s="4">
+      <c r="G274" s="8">
         <v>0.86185185185185187</v>
       </c>
       <c r="H274" s="1">
@@ -11207,13 +11219,13 @@
       <c r="D275" s="3">
         <v>45980</v>
       </c>
-      <c r="E275" s="4">
+      <c r="E275" s="8">
         <v>0.8624074074074074</v>
       </c>
       <c r="F275" s="3">
         <v>45980</v>
       </c>
-      <c r="G275" s="4">
+      <c r="G275" s="8">
         <v>0.87282407407407403</v>
       </c>
       <c r="H275" s="1">
@@ -11246,13 +11258,13 @@
       <c r="D276" s="3">
         <v>45980</v>
       </c>
-      <c r="E276" s="4">
+      <c r="E276" s="8">
         <v>0.87339120370370371</v>
       </c>
       <c r="F276" s="3">
         <v>45980</v>
       </c>
-      <c r="G276" s="4">
+      <c r="G276" s="8">
         <v>0.88380787037037034</v>
       </c>
       <c r="H276" s="1">
@@ -11285,13 +11297,13 @@
       <c r="D277" s="3">
         <v>45980</v>
       </c>
-      <c r="E277" s="4">
+      <c r="E277" s="8">
         <v>0.88436342592592587</v>
       </c>
       <c r="F277" s="3">
         <v>45980</v>
       </c>
-      <c r="G277" s="4">
+      <c r="G277" s="8">
         <v>0.90519675925925924</v>
       </c>
       <c r="H277" s="1">
@@ -11324,13 +11336,13 @@
       <c r="D278" s="3">
         <v>45980</v>
       </c>
-      <c r="E278" s="4">
+      <c r="E278" s="8">
         <v>0.90575231481481477</v>
       </c>
       <c r="F278" s="3">
         <v>45980</v>
       </c>
-      <c r="G278" s="4">
+      <c r="G278" s="8">
         <v>0.91616898148148151</v>
       </c>
       <c r="H278" s="1">
@@ -11363,13 +11375,13 @@
       <c r="D279" s="3">
         <v>45980</v>
       </c>
-      <c r="E279" s="4">
+      <c r="E279" s="8">
         <v>0.91673611111111108</v>
       </c>
       <c r="F279" s="3">
         <v>45980</v>
       </c>
-      <c r="G279" s="4">
+      <c r="G279" s="8">
         <v>0.93756944444444446</v>
       </c>
       <c r="H279" s="1">
@@ -11402,13 +11414,13 @@
       <c r="D280" s="3">
         <v>45980</v>
       </c>
-      <c r="E280" s="4">
+      <c r="E280" s="8">
         <v>0.93812499999999999</v>
       </c>
       <c r="F280" s="3">
         <v>45980</v>
       </c>
-      <c r="G280" s="4">
+      <c r="G280" s="8">
         <v>0.94854166666666662</v>
       </c>
       <c r="H280" s="1">
@@ -11441,13 +11453,13 @@
       <c r="D281" s="3">
         <v>45980</v>
       </c>
-      <c r="E281" s="4">
+      <c r="E281" s="8">
         <v>0.9491087962962963</v>
       </c>
       <c r="F281" s="3">
         <v>45980</v>
       </c>
-      <c r="G281" s="4">
+      <c r="G281" s="8">
         <v>0.95258101851851851</v>
       </c>
       <c r="H281" s="1">
@@ -11480,13 +11492,13 @@
       <c r="D282" s="3">
         <v>45980</v>
       </c>
-      <c r="E282" s="4">
+      <c r="E282" s="8">
         <v>0.95314814814814819</v>
       </c>
       <c r="F282" s="3">
         <v>45980</v>
       </c>
-      <c r="G282" s="4">
+      <c r="G282" s="8">
         <v>0.96009259259259261</v>
       </c>
       <c r="H282" s="1">
@@ -11519,13 +11531,13 @@
       <c r="D283" s="3">
         <v>45980</v>
       </c>
-      <c r="E283" s="4">
+      <c r="E283" s="8">
         <v>0.96064814814814814</v>
       </c>
       <c r="F283" s="3">
         <v>45980</v>
       </c>
-      <c r="G283" s="4">
+      <c r="G283" s="8">
         <v>0.97106481481481477</v>
       </c>
       <c r="H283" s="1">
@@ -11558,13 +11570,13 @@
       <c r="D284" s="3">
         <v>45980</v>
       </c>
-      <c r="E284" s="4">
+      <c r="E284" s="8">
         <v>0.97162037037037041</v>
       </c>
       <c r="F284" s="3">
         <v>45980</v>
       </c>
-      <c r="G284" s="4">
+      <c r="G284" s="8">
         <v>0.97509259259259262</v>
       </c>
       <c r="H284" s="1">
@@ -11597,13 +11609,13 @@
       <c r="D285" s="3">
         <v>45980</v>
       </c>
-      <c r="E285" s="4">
+      <c r="E285" s="8">
         <v>0.97564814814814815</v>
       </c>
       <c r="F285" s="3">
         <v>45980</v>
       </c>
-      <c r="G285" s="4">
+      <c r="G285" s="8">
         <v>0.97912037037037036</v>
       </c>
       <c r="H285" s="1">
@@ -11636,13 +11648,13 @@
       <c r="D286" s="3">
         <v>45980</v>
       </c>
-      <c r="E286" s="4">
+      <c r="E286" s="8">
         <v>0.97968750000000004</v>
       </c>
       <c r="F286" s="3">
         <v>45980</v>
       </c>
-      <c r="G286" s="4">
+      <c r="G286" s="8">
         <v>0.98663194444444446</v>
       </c>
       <c r="H286" s="1">
@@ -11675,13 +11687,13 @@
       <c r="D287" s="3">
         <v>45980</v>
       </c>
-      <c r="E287" s="4">
+      <c r="E287" s="8">
         <v>0.98719907407407403</v>
       </c>
       <c r="F287" s="3">
         <v>45980</v>
       </c>
-      <c r="G287" s="4">
+      <c r="G287" s="8">
         <v>0.99414351851851857</v>
       </c>
       <c r="H287" s="1">
@@ -11714,13 +11726,13 @@
       <c r="D288" s="3">
         <v>45980</v>
       </c>
-      <c r="E288" s="4">
+      <c r="E288" s="8">
         <v>0.99471064814814814</v>
       </c>
       <c r="F288" s="3">
         <v>45981</v>
       </c>
-      <c r="G288" s="4">
+      <c r="G288" s="8">
         <v>1.6550925925925926E-3</v>
       </c>
       <c r="H288" s="1">
@@ -11753,13 +11765,13 @@
       <c r="D289" s="3">
         <v>45981</v>
       </c>
-      <c r="E289" s="4">
+      <c r="E289" s="8">
         <v>2.2106481481481482E-3</v>
       </c>
       <c r="F289" s="3">
         <v>45981</v>
       </c>
-      <c r="G289" s="4">
+      <c r="G289" s="8">
         <v>5.6828703703703702E-3</v>
       </c>
       <c r="H289" s="1">
@@ -11792,13 +11804,13 @@
       <c r="D290" s="3">
         <v>45981</v>
       </c>
-      <c r="E290" s="4">
+      <c r="E290" s="8">
         <v>6.2384259259259259E-3</v>
       </c>
       <c r="F290" s="3">
         <v>45981</v>
       </c>
-      <c r="G290" s="4">
+      <c r="G290" s="8">
         <v>1.3182870370370371E-2</v>
       </c>
       <c r="H290" s="1">
@@ -11831,13 +11843,13 @@
       <c r="D291" s="3">
         <v>45981</v>
       </c>
-      <c r="E291" s="4">
+      <c r="E291" s="8">
         <v>1.375E-2</v>
       </c>
       <c r="F291" s="3">
         <v>45981</v>
       </c>
-      <c r="G291" s="4">
+      <c r="G291" s="8">
         <v>1.7222222222222222E-2</v>
       </c>
       <c r="H291" s="1">
@@ -11870,13 +11882,13 @@
       <c r="D292" s="3">
         <v>45981</v>
       </c>
-      <c r="E292" s="4">
+      <c r="E292" s="8">
         <v>1.7777777777777778E-2</v>
       </c>
       <c r="F292" s="3">
         <v>45981</v>
       </c>
-      <c r="G292" s="4">
+      <c r="G292" s="8">
         <v>2.4722222222222222E-2</v>
       </c>
       <c r="H292" s="1">
@@ -11909,13 +11921,13 @@
       <c r="D293" s="3">
         <v>45981</v>
       </c>
-      <c r="E293" s="4">
+      <c r="E293" s="8">
         <v>2.5277777777777777E-2</v>
       </c>
       <c r="F293" s="3">
         <v>45981</v>
       </c>
-      <c r="G293" s="4">
+      <c r="G293" s="8">
         <v>3.2222222222222222E-2</v>
       </c>
       <c r="H293" s="1">
@@ -11948,13 +11960,13 @@
       <c r="D294" s="3">
         <v>45981</v>
       </c>
-      <c r="E294" s="4">
+      <c r="E294" s="8">
         <v>3.5208333333333335E-2</v>
       </c>
       <c r="F294" s="3">
         <v>45981</v>
       </c>
-      <c r="G294" s="4">
+      <c r="G294" s="8">
         <v>3.8680555555555558E-2</v>
       </c>
       <c r="H294" s="1">
@@ -11987,13 +11999,13 @@
       <c r="D295" s="3">
         <v>45981</v>
       </c>
-      <c r="E295" s="4">
+      <c r="E295" s="8">
         <v>3.923611111111111E-2</v>
       </c>
       <c r="F295" s="3">
         <v>45981</v>
       </c>
-      <c r="G295" s="4">
+      <c r="G295" s="8">
         <v>4.6180555555555558E-2</v>
       </c>
       <c r="H295" s="1">
@@ -12026,13 +12038,13 @@
       <c r="D296" s="3">
         <v>45981</v>
       </c>
-      <c r="E296" s="4">
+      <c r="E296" s="8">
         <v>4.673611111111111E-2</v>
       </c>
       <c r="F296" s="3">
         <v>45981</v>
       </c>
-      <c r="G296" s="4">
+      <c r="G296" s="8">
         <v>5.0208333333333334E-2</v>
       </c>
       <c r="H296" s="1">
@@ -12065,13 +12077,13 @@
       <c r="D297" s="3">
         <v>45981</v>
       </c>
-      <c r="E297" s="4">
+      <c r="E297" s="8">
         <v>5.0763888888888886E-2</v>
       </c>
       <c r="F297" s="3">
         <v>45981</v>
       </c>
-      <c r="G297" s="4">
+      <c r="G297" s="8">
         <v>5.7708333333333334E-2</v>
       </c>
       <c r="H297" s="1">
@@ -12104,13 +12116,13 @@
       <c r="D298" s="3">
         <v>45981</v>
       </c>
-      <c r="E298" s="4">
+      <c r="E298" s="8">
         <v>5.8263888888888886E-2</v>
       </c>
       <c r="F298" s="3">
         <v>45981</v>
       </c>
-      <c r="G298" s="4">
+      <c r="G298" s="8">
         <v>6.868055555555555E-2</v>
       </c>
       <c r="H298" s="1">
@@ -12134,7 +12146,7 @@
       <c r="A299" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B299" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C299" s="1" t="s">
@@ -12143,13 +12155,13 @@
       <c r="D299" s="3">
         <v>45981</v>
       </c>
-      <c r="E299" s="5">
+      <c r="E299" s="8">
         <v>7.6747685185185183E-2</v>
       </c>
       <c r="F299" s="3">
         <v>45981</v>
       </c>
-      <c r="G299" s="5">
+      <c r="G299" s="8">
         <v>8.369212962962963E-2</v>
       </c>
       <c r="H299" s="1">
@@ -12173,7 +12185,7 @@
       <c r="A300" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B300" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C300" s="1" t="s">
@@ -12182,13 +12194,13 @@
       <c r="D300" s="3">
         <v>45981</v>
       </c>
-      <c r="E300" s="5">
+      <c r="E300" s="8">
         <v>8.4247685185185189E-2</v>
       </c>
       <c r="F300" s="3">
         <v>45981</v>
       </c>
-      <c r="G300" s="5">
+      <c r="G300" s="8">
         <v>8.7719907407407413E-2</v>
       </c>
       <c r="H300" s="1">
@@ -12212,7 +12224,7 @@
       <c r="A301" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B301" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C301" s="1" t="s">
@@ -12221,13 +12233,13 @@
       <c r="D301" s="3">
         <v>45981</v>
       </c>
-      <c r="E301" s="5">
+      <c r="E301" s="8">
         <v>8.8275462962962958E-2</v>
       </c>
       <c r="F301" s="3">
         <v>45981</v>
       </c>
-      <c r="G301" s="5">
+      <c r="G301" s="8">
         <v>9.5219907407407406E-2</v>
       </c>
       <c r="H301" s="1">
@@ -12251,7 +12263,7 @@
       <c r="A302" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="B302" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C302" s="1" t="s">
@@ -12260,13 +12272,13 @@
       <c r="D302" s="3">
         <v>45981</v>
       </c>
-      <c r="E302" s="5">
+      <c r="E302" s="8">
         <v>9.5775462962962965E-2</v>
       </c>
       <c r="F302" s="3">
         <v>45981</v>
       </c>
-      <c r="G302" s="5">
+      <c r="G302" s="8">
         <v>9.9247685185185189E-2</v>
       </c>
       <c r="H302" s="1">
@@ -12290,7 +12302,7 @@
       <c r="A303" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="B303" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C303" s="1" t="s">
@@ -12299,13 +12311,13 @@
       <c r="D303" s="3">
         <v>45981</v>
       </c>
-      <c r="E303" s="5">
+      <c r="E303" s="8">
         <v>9.9803240740740734E-2</v>
       </c>
       <c r="F303" s="3">
         <v>45981</v>
       </c>
-      <c r="G303" s="5">
+      <c r="G303" s="8">
         <v>0.10674768518518518</v>
       </c>
       <c r="H303" s="1">
@@ -12329,7 +12341,7 @@
       <c r="A304" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="B304" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C304" s="1" t="s">
@@ -12338,13 +12350,13 @@
       <c r="D304" s="3">
         <v>45981</v>
       </c>
-      <c r="E304" s="5">
+      <c r="E304" s="8">
         <v>0.10730324074074074</v>
       </c>
       <c r="F304" s="3">
         <v>45981</v>
       </c>
-      <c r="G304" s="5">
+      <c r="G304" s="8">
         <v>0.11424768518518519</v>
       </c>
       <c r="H304" s="1">
@@ -12368,7 +12380,7 @@
       <c r="A305" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B305" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C305" s="1" t="s">
@@ -12377,13 +12389,13 @@
       <c r="D305" s="3">
         <v>45981</v>
       </c>
-      <c r="E305" s="5">
+      <c r="E305" s="8">
         <v>0.11481481481481481</v>
       </c>
       <c r="F305" s="3">
         <v>45981</v>
       </c>
-      <c r="G305" s="5">
+      <c r="G305" s="8">
         <v>0.13564814814814816</v>
       </c>
       <c r="H305" s="1">
@@ -12407,7 +12419,7 @@
       <c r="A306" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="B306" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C306" s="1" t="s">
@@ -12416,13 +12428,13 @@
       <c r="D306" s="3">
         <v>45981</v>
       </c>
-      <c r="E306" s="5">
+      <c r="E306" s="8">
         <v>0.13620370370370372</v>
       </c>
       <c r="F306" s="3">
         <v>45981</v>
       </c>
-      <c r="G306" s="5">
+      <c r="G306" s="8">
         <v>0.14662037037037037</v>
       </c>
       <c r="H306" s="1">
@@ -12446,7 +12458,7 @@
       <c r="A307" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="B307" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C307" s="1" t="s">
@@ -12455,13 +12467,13 @@
       <c r="D307" s="3">
         <v>45981</v>
       </c>
-      <c r="E307" s="5">
+      <c r="E307" s="8">
         <v>0.14717592592592593</v>
       </c>
       <c r="F307" s="3">
         <v>45981</v>
       </c>
-      <c r="G307" s="5">
+      <c r="G307" s="8">
         <v>0.15064814814814814</v>
       </c>
       <c r="H307" s="1">
@@ -12485,7 +12497,7 @@
       <c r="A308" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="B308" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C308" s="1" t="s">
@@ -12494,13 +12506,13 @@
       <c r="D308" s="3">
         <v>45981</v>
       </c>
-      <c r="E308" s="5">
+      <c r="E308" s="8">
         <v>0.1512037037037037</v>
       </c>
       <c r="F308" s="3">
         <v>45981</v>
       </c>
-      <c r="G308" s="5">
+      <c r="G308" s="8">
         <v>0.17203703703703704</v>
       </c>
       <c r="H308" s="1">
@@ -12524,7 +12536,7 @@
       <c r="A309" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="B309" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C309" s="1" t="s">
@@ -12533,13 +12545,13 @@
       <c r="D309" s="3">
         <v>45981</v>
       </c>
-      <c r="E309" s="5">
+      <c r="E309" s="8">
         <v>0.17260416666666667</v>
       </c>
       <c r="F309" s="3">
         <v>45981</v>
       </c>
-      <c r="G309" s="5">
+      <c r="G309" s="8">
         <v>0.17954861111111112</v>
       </c>
       <c r="H309" s="1">
@@ -12563,7 +12575,7 @@
       <c r="A310" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="B310" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C310" s="1" t="s">
@@ -12572,13 +12584,13 @@
       <c r="D310" s="3">
         <v>45981</v>
       </c>
-      <c r="E310" s="5">
+      <c r="E310" s="8">
         <v>0.18011574074074074</v>
       </c>
       <c r="F310" s="3">
         <v>45981</v>
       </c>
-      <c r="G310" s="5">
+      <c r="G310" s="8">
         <v>0.18706018518518519</v>
       </c>
       <c r="H310" s="1">
@@ -12602,7 +12614,7 @@
       <c r="A311" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="B311" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C311" s="1" t="s">
@@ -12611,13 +12623,13 @@
       <c r="D311" s="3">
         <v>45981</v>
       </c>
-      <c r="E311" s="5">
+      <c r="E311" s="8">
         <v>0.18760416666666666</v>
       </c>
       <c r="F311" s="3">
         <v>45981</v>
       </c>
-      <c r="G311" s="5">
+      <c r="G311" s="8">
         <v>0.19107638888888889</v>
       </c>
       <c r="H311" s="1">
@@ -12641,7 +12653,7 @@
       <c r="A312" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="B312" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C312" s="1" t="s">
@@ -12650,13 +12662,13 @@
       <c r="D312" s="3">
         <v>45981</v>
       </c>
-      <c r="E312" s="5">
+      <c r="E312" s="8">
         <v>0.19164351851851852</v>
       </c>
       <c r="F312" s="3">
         <v>45981</v>
       </c>
-      <c r="G312" s="5">
+      <c r="G312" s="8">
         <v>0.21247685185185186</v>
       </c>
       <c r="H312" s="1">
@@ -12680,7 +12692,7 @@
       <c r="A313" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="B313" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C313" s="1" t="s">
@@ -12689,13 +12701,13 @@
       <c r="D313" s="3">
         <v>45981</v>
       </c>
-      <c r="E313" s="5">
+      <c r="E313" s="8">
         <v>0.21303240740740742</v>
       </c>
       <c r="F313" s="3">
         <v>45981</v>
       </c>
-      <c r="G313" s="5">
+      <c r="G313" s="8">
         <v>0.22344907407407408</v>
       </c>
       <c r="H313" s="1">
@@ -12719,7 +12731,7 @@
       <c r="A314" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="B314" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C314" s="1" t="s">
@@ -12728,13 +12740,13 @@
       <c r="D314" s="3">
         <v>45981</v>
       </c>
-      <c r="E314" s="5">
+      <c r="E314" s="8">
         <v>0.2240162037037037</v>
       </c>
       <c r="F314" s="3">
         <v>45981</v>
       </c>
-      <c r="G314" s="5">
+      <c r="G314" s="8">
         <v>0.23096064814814815</v>
       </c>
       <c r="H314" s="1">
@@ -12758,7 +12770,7 @@
       <c r="A315" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="B315" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C315" s="1" t="s">
@@ -12767,13 +12779,13 @@
       <c r="D315" s="3">
         <v>45981</v>
       </c>
-      <c r="E315" s="5">
+      <c r="E315" s="8">
         <v>0.23151620370370371</v>
       </c>
       <c r="F315" s="3">
         <v>45981</v>
       </c>
-      <c r="G315" s="5">
+      <c r="G315" s="8">
         <v>0.23498842592592592</v>
       </c>
       <c r="H315" s="1">
@@ -12797,7 +12809,7 @@
       <c r="A316" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="B316" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C316" s="1" t="s">
@@ -12806,13 +12818,13 @@
       <c r="D316" s="3">
         <v>45981</v>
       </c>
-      <c r="E316" s="5">
+      <c r="E316" s="8">
         <v>0.23554398148148148</v>
       </c>
       <c r="F316" s="3">
         <v>45981</v>
       </c>
-      <c r="G316" s="5">
+      <c r="G316" s="8">
         <v>0.25637731481481479</v>
       </c>
       <c r="H316" s="1">
@@ -12836,7 +12848,7 @@
       <c r="A317" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B317" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C317" s="1" t="s">
@@ -12845,13 +12857,13 @@
       <c r="D317" s="3">
         <v>45981</v>
       </c>
-      <c r="E317" s="5">
+      <c r="E317" s="8">
         <v>0.25693287037037038</v>
       </c>
       <c r="F317" s="3">
         <v>45981</v>
       </c>
-      <c r="G317" s="5">
+      <c r="G317" s="8">
         <v>0.2777662037037037</v>
       </c>
       <c r="H317" s="1">
@@ -12875,7 +12887,7 @@
       <c r="A318" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="B318" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C318" s="1" t="s">
@@ -12884,13 +12896,13 @@
       <c r="D318" s="3">
         <v>45981</v>
       </c>
-      <c r="E318" s="5">
+      <c r="E318" s="8">
         <v>0.27833333333333332</v>
       </c>
       <c r="F318" s="3">
         <v>45981</v>
       </c>
-      <c r="G318" s="5">
+      <c r="G318" s="8">
         <v>0.28875000000000001</v>
       </c>
       <c r="H318" s="1">
@@ -12914,7 +12926,7 @@
       <c r="A319" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="B319" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C319" s="1" t="s">
@@ -12923,13 +12935,13 @@
       <c r="D319" s="3">
         <v>45981</v>
       </c>
-      <c r="E319" s="5">
+      <c r="E319" s="8">
         <v>0.28931712962962963</v>
       </c>
       <c r="F319" s="3">
         <v>45981</v>
       </c>
-      <c r="G319" s="5">
+      <c r="G319" s="8">
         <v>0.31015046296296295</v>
       </c>
       <c r="H319" s="1">
@@ -12953,7 +12965,7 @@
       <c r="A320" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="B320" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C320" s="1" t="s">
@@ -12962,13 +12974,13 @@
       <c r="D320" s="3">
         <v>45981</v>
       </c>
-      <c r="E320" s="5">
+      <c r="E320" s="8">
         <v>0.31069444444444444</v>
       </c>
       <c r="F320" s="3">
         <v>45981</v>
       </c>
-      <c r="G320" s="5">
+      <c r="G320" s="8">
         <v>0.32111111111111112</v>
       </c>
       <c r="H320" s="1">
@@ -12992,7 +13004,7 @@
       <c r="A321" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="B321" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C321" s="1" t="s">
@@ -13001,13 +13013,13 @@
       <c r="D321" s="3">
         <v>45981</v>
       </c>
-      <c r="E321" s="5">
+      <c r="E321" s="8">
         <v>0.32166666666666666</v>
       </c>
       <c r="F321" s="3">
         <v>45981</v>
       </c>
-      <c r="G321" s="5">
+      <c r="G321" s="8">
         <v>0.32513888888888887</v>
       </c>
       <c r="H321" s="1">
@@ -13031,7 +13043,7 @@
       <c r="A322" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="B322" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C322" s="1" t="s">
@@ -13040,13 +13052,13 @@
       <c r="D322" s="3">
         <v>45981</v>
       </c>
-      <c r="E322" s="5">
+      <c r="E322" s="8">
         <v>0.32571759259259259</v>
       </c>
       <c r="F322" s="3">
         <v>45981</v>
       </c>
-      <c r="G322" s="5">
+      <c r="G322" s="8">
         <v>0.33613425925925927</v>
       </c>
       <c r="H322" s="1">
@@ -13070,7 +13082,7 @@
       <c r="A323" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="B323" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C323" s="1" t="s">
@@ -13079,13 +13091,13 @@
       <c r="D323" s="3">
         <v>45981</v>
       </c>
-      <c r="E323" s="5">
+      <c r="E323" s="8">
         <v>0.3366898148148148</v>
       </c>
       <c r="F323" s="3">
         <v>45981</v>
       </c>
-      <c r="G323" s="5">
+      <c r="G323" s="8">
         <v>0.34710648148148149</v>
       </c>
       <c r="H323" s="1">
@@ -13101,7 +13113,7 @@
         <v>0.89</v>
       </c>
       <c r="L323">
-        <f t="shared" ref="L323:L371" si="5" xml:space="preserve"> IF(K323&gt;0,1,0)</f>
+        <f t="shared" ref="L323:L375" si="5" xml:space="preserve"> IF(K323&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -13109,7 +13121,7 @@
       <c r="A324" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="B324" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C324" s="1" t="s">
@@ -13118,13 +13130,13 @@
       <c r="D324" s="3">
         <v>45981</v>
       </c>
-      <c r="E324" s="5">
+      <c r="E324" s="8">
         <v>0.34766203703703702</v>
       </c>
       <c r="F324" s="3">
         <v>45981</v>
       </c>
-      <c r="G324" s="5">
+      <c r="G324" s="8">
         <v>0.35113425925925928</v>
       </c>
       <c r="H324" s="1">
@@ -13148,7 +13160,7 @@
       <c r="A325" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="B325" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C325" s="1" t="s">
@@ -13157,13 +13169,13 @@
       <c r="D325" s="3">
         <v>45981</v>
       </c>
-      <c r="E325" s="5">
+      <c r="E325" s="8">
         <v>0.35170138888888891</v>
       </c>
       <c r="F325" s="3">
         <v>45981</v>
       </c>
-      <c r="G325" s="5">
+      <c r="G325" s="8">
         <v>0.35517361111111112</v>
       </c>
       <c r="H325" s="1">
@@ -13187,7 +13199,7 @@
       <c r="A326" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="B326" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C326" s="1" t="s">
@@ -13196,13 +13208,13 @@
       <c r="D326" s="3">
         <v>45981</v>
       </c>
-      <c r="E326" s="5">
+      <c r="E326" s="8">
         <v>0.35572916666666665</v>
       </c>
       <c r="F326" s="3">
         <v>45981</v>
       </c>
-      <c r="G326" s="5">
+      <c r="G326" s="8">
         <v>0.36267361111111113</v>
       </c>
       <c r="H326" s="1">
@@ -13226,7 +13238,7 @@
       <c r="A327" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="B327" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C327" s="1" t="s">
@@ -13235,13 +13247,13 @@
       <c r="D327" s="3">
         <v>45981</v>
       </c>
-      <c r="E327" s="5">
+      <c r="E327" s="8">
         <v>0.36324074074074075</v>
       </c>
       <c r="F327" s="3">
         <v>45981</v>
       </c>
-      <c r="G327" s="5">
+      <c r="G327" s="8">
         <v>0.37018518518518517</v>
       </c>
       <c r="H327" s="1">
@@ -13265,7 +13277,7 @@
       <c r="A328" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="B328" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C328" s="1" t="s">
@@ -13274,13 +13286,13 @@
       <c r="D328" s="3">
         <v>45981</v>
       </c>
-      <c r="E328" s="5">
+      <c r="E328" s="8">
         <v>0.37074074074074076</v>
       </c>
       <c r="F328" s="3">
         <v>45981</v>
       </c>
-      <c r="G328" s="5">
+      <c r="G328" s="8">
         <v>0.38115740740740739</v>
       </c>
       <c r="H328" s="1">
@@ -13304,7 +13316,7 @@
       <c r="A329" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="B329" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C329" s="1" t="s">
@@ -13313,13 +13325,13 @@
       <c r="D329" s="3">
         <v>45981</v>
       </c>
-      <c r="E329" s="5">
+      <c r="E329" s="8">
         <v>0.38172453703703701</v>
       </c>
       <c r="F329" s="3">
         <v>45981</v>
       </c>
-      <c r="G329" s="5">
+      <c r="G329" s="8">
         <v>0.38866898148148149</v>
       </c>
       <c r="H329" s="1">
@@ -13343,7 +13355,7 @@
       <c r="A330" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="B330" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C330" s="1" t="s">
@@ -13352,13 +13364,13 @@
       <c r="D330" s="3">
         <v>45981</v>
       </c>
-      <c r="E330" s="5">
+      <c r="E330" s="8">
         <v>0.38922453703703702</v>
       </c>
       <c r="F330" s="3">
         <v>45981</v>
       </c>
-      <c r="G330" s="5">
+      <c r="G330" s="8">
         <v>0.41005787037037039</v>
       </c>
       <c r="H330" s="1">
@@ -13382,7 +13394,7 @@
       <c r="A331" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="B331" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C331" s="1" t="s">
@@ -13391,13 +13403,13 @@
       <c r="D331" s="3">
         <v>45981</v>
       </c>
-      <c r="E331" s="5">
+      <c r="E331" s="8">
         <v>0.41062500000000002</v>
       </c>
       <c r="F331" s="3">
         <v>45981</v>
       </c>
-      <c r="G331" s="5">
+      <c r="G331" s="8">
         <v>0.41409722222222223</v>
       </c>
       <c r="H331" s="1">
@@ -13421,7 +13433,7 @@
       <c r="A332" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="B332" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C332" s="1" t="s">
@@ -13430,13 +13442,13 @@
       <c r="D332" s="3">
         <v>45981</v>
       </c>
-      <c r="E332" s="5">
+      <c r="E332" s="8">
         <v>0.41466435185185185</v>
       </c>
       <c r="F332" s="3">
         <v>45981</v>
       </c>
-      <c r="G332" s="5">
+      <c r="G332" s="8">
         <v>0.41813657407407406</v>
       </c>
       <c r="H332" s="1">
@@ -13460,7 +13472,7 @@
       <c r="A333" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="B333" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C333" s="1" t="s">
@@ -13469,13 +13481,13 @@
       <c r="D333" s="3">
         <v>45981</v>
       </c>
-      <c r="E333" s="5">
+      <c r="E333" s="8">
         <v>0.41869212962962965</v>
       </c>
       <c r="F333" s="3">
         <v>45981</v>
       </c>
-      <c r="G333" s="5">
+      <c r="G333" s="8">
         <v>0.43952546296296297</v>
       </c>
       <c r="H333" s="1">
@@ -13499,7 +13511,7 @@
       <c r="A334" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="B334" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C334" s="1" t="s">
@@ -13508,13 +13520,13 @@
       <c r="D334" s="3">
         <v>45981</v>
       </c>
-      <c r="E334" s="5">
+      <c r="E334" s="8">
         <v>0.44009259259259259</v>
       </c>
       <c r="F334" s="3">
         <v>45981</v>
       </c>
-      <c r="G334" s="5">
+      <c r="G334" s="8">
         <v>0.4435648148148148</v>
       </c>
       <c r="H334" s="1">
@@ -13538,7 +13550,7 @@
       <c r="A335" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="B335" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C335" s="1" t="s">
@@ -13547,13 +13559,13 @@
       <c r="D335" s="3">
         <v>45981</v>
       </c>
-      <c r="E335" s="5">
+      <c r="E335" s="8">
         <v>0.44413194444444443</v>
       </c>
       <c r="F335" s="3">
         <v>45981</v>
       </c>
-      <c r="G335" s="5">
+      <c r="G335" s="8">
         <v>0.45454861111111111</v>
       </c>
       <c r="H335" s="1">
@@ -13577,7 +13589,7 @@
       <c r="A336" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="B336" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C336" s="1" t="s">
@@ -13586,13 +13598,13 @@
       <c r="D336" s="3">
         <v>45981</v>
       </c>
-      <c r="E336" s="5">
+      <c r="E336" s="8">
         <v>0.45510416666666664</v>
       </c>
       <c r="F336" s="3">
         <v>45981</v>
       </c>
-      <c r="G336" s="5">
+      <c r="G336" s="8">
         <v>0.46552083333333333</v>
       </c>
       <c r="H336" s="1">
@@ -13616,7 +13628,7 @@
       <c r="A337" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="B337" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C337" s="1" t="s">
@@ -13625,13 +13637,13 @@
       <c r="D337" s="3">
         <v>45981</v>
       </c>
-      <c r="E337" s="5">
+      <c r="E337" s="8">
         <v>0.46608796296296295</v>
       </c>
       <c r="F337" s="3">
         <v>45981</v>
       </c>
-      <c r="G337" s="5">
+      <c r="G337" s="8">
         <v>0.47303240740740743</v>
       </c>
       <c r="H337" s="1">
@@ -13655,7 +13667,7 @@
       <c r="A338" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="B338" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C338" s="1" t="s">
@@ -13664,13 +13676,13 @@
       <c r="D338" s="3">
         <v>45981</v>
       </c>
-      <c r="E338" s="5">
+      <c r="E338" s="8">
         <v>0.47359953703703705</v>
       </c>
       <c r="F338" s="3">
         <v>45981</v>
       </c>
-      <c r="G338" s="5">
+      <c r="G338" s="8">
         <v>0.48401620370370368</v>
       </c>
       <c r="H338" s="1">
@@ -13694,7 +13706,7 @@
       <c r="A339" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="B339" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C339" s="1" t="s">
@@ -13703,13 +13715,13 @@
       <c r="D339" s="3">
         <v>45981</v>
       </c>
-      <c r="E339" s="5">
+      <c r="E339" s="8">
         <v>0.48458333333333331</v>
       </c>
       <c r="F339" s="3">
         <v>45981</v>
       </c>
-      <c r="G339" s="5">
+      <c r="G339" s="8">
         <v>0.49152777777777779</v>
       </c>
       <c r="H339" s="1">
@@ -13733,7 +13745,7 @@
       <c r="A340" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="B340" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C340" s="1" t="s">
@@ -13742,13 +13754,13 @@
       <c r="D340" s="3">
         <v>45981</v>
       </c>
-      <c r="E340" s="5">
+      <c r="E340" s="8">
         <v>0.49209490740740741</v>
       </c>
       <c r="F340" s="3">
         <v>45981</v>
       </c>
-      <c r="G340" s="5">
+      <c r="G340" s="8">
         <v>0.49903935185185183</v>
       </c>
       <c r="H340" s="1">
@@ -13772,7 +13784,7 @@
       <c r="A341" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="B341" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C341" s="1" t="s">
@@ -13781,13 +13793,13 @@
       <c r="D341" s="3">
         <v>45981</v>
       </c>
-      <c r="E341" s="5">
+      <c r="E341" s="8">
         <v>0.49960648148148146</v>
       </c>
       <c r="F341" s="3">
         <v>45981</v>
       </c>
-      <c r="G341" s="5">
+      <c r="G341" s="8">
         <v>0.50307870370370367</v>
       </c>
       <c r="H341" s="1">
@@ -13811,7 +13823,7 @@
       <c r="A342" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="B342" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C342" s="1" t="s">
@@ -13820,13 +13832,13 @@
       <c r="D342" s="3">
         <v>45981</v>
       </c>
-      <c r="E342" s="5">
+      <c r="E342" s="8">
         <v>0.50364583333333335</v>
       </c>
       <c r="F342" s="3">
         <v>45981</v>
       </c>
-      <c r="G342" s="5">
+      <c r="G342" s="8">
         <v>0.51059027777777777</v>
       </c>
       <c r="H342" s="1">
@@ -13850,7 +13862,7 @@
       <c r="A343" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="B343" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C343" s="1" t="s">
@@ -13859,13 +13871,13 @@
       <c r="D343" s="3">
         <v>45981</v>
       </c>
-      <c r="E343" s="5">
+      <c r="E343" s="8">
         <v>0.51115740740740745</v>
       </c>
       <c r="F343" s="3">
         <v>45981</v>
       </c>
-      <c r="G343" s="5">
+      <c r="G343" s="8">
         <v>0.53199074074074071</v>
       </c>
       <c r="H343" s="1">
@@ -13889,7 +13901,7 @@
       <c r="A344" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="B344" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C344" s="1" t="s">
@@ -13898,13 +13910,13 @@
       <c r="D344" s="3">
         <v>45981</v>
       </c>
-      <c r="E344" s="5">
+      <c r="E344" s="8">
         <v>0.53255787037037039</v>
       </c>
       <c r="F344" s="3">
         <v>45981</v>
       </c>
-      <c r="G344" s="5">
+      <c r="G344" s="8">
         <v>0.53950231481481481</v>
       </c>
       <c r="H344" s="1">
@@ -13928,7 +13940,7 @@
       <c r="A345" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="B345" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C345" s="1" t="s">
@@ -13937,13 +13949,13 @@
       <c r="D345" s="3">
         <v>45981</v>
       </c>
-      <c r="E345" s="5">
+      <c r="E345" s="8">
         <v>0.54006944444444449</v>
       </c>
       <c r="F345" s="3">
         <v>45981</v>
       </c>
-      <c r="G345" s="5">
+      <c r="G345" s="8">
         <v>0.55048611111111112</v>
       </c>
       <c r="H345" s="1">
@@ -13967,7 +13979,7 @@
       <c r="A346" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="B346" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C346" s="1" t="s">
@@ -13976,13 +13988,13 @@
       <c r="D346" s="3">
         <v>45981</v>
       </c>
-      <c r="E346" s="5">
+      <c r="E346" s="8">
         <v>0.55105324074074069</v>
       </c>
       <c r="F346" s="3">
         <v>45981</v>
       </c>
-      <c r="G346" s="5">
+      <c r="G346" s="8">
         <v>0.56146990740740743</v>
       </c>
       <c r="H346" s="1">
@@ -14006,7 +14018,7 @@
       <c r="A347" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="B347" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C347" s="1" t="s">
@@ -14015,13 +14027,13 @@
       <c r="D347" s="3">
         <v>45981</v>
       </c>
-      <c r="E347" s="5">
+      <c r="E347" s="8">
         <v>0.562037037037037</v>
       </c>
       <c r="F347" s="3">
         <v>45981</v>
       </c>
-      <c r="G347" s="5">
+      <c r="G347" s="8">
         <v>0.57245370370370374</v>
       </c>
       <c r="H347" s="1">
@@ -14045,7 +14057,7 @@
       <c r="A348" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="B348" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C348" s="1" t="s">
@@ -14054,13 +14066,13 @@
       <c r="D348" s="3">
         <v>45981</v>
       </c>
-      <c r="E348" s="5">
+      <c r="E348" s="8">
         <v>0.57303240740740746</v>
       </c>
       <c r="F348" s="3">
         <v>45981</v>
       </c>
-      <c r="G348" s="5">
+      <c r="G348" s="8">
         <v>0.57650462962962967</v>
       </c>
       <c r="H348" s="1">
@@ -14084,7 +14096,7 @@
       <c r="A349" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="B349" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -14093,13 +14105,13 @@
       <c r="D349" s="3">
         <v>45981</v>
       </c>
-      <c r="E349" s="5">
+      <c r="E349" s="8">
         <v>0.57708333333333328</v>
       </c>
       <c r="F349" s="3">
         <v>45981</v>
       </c>
-      <c r="G349" s="5">
+      <c r="G349" s="8">
         <v>0.58402777777777781</v>
       </c>
       <c r="H349" s="1">
@@ -14123,7 +14135,7 @@
       <c r="A350" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="B350" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C350" s="1" t="s">
@@ -14132,13 +14144,13 @@
       <c r="D350" s="3">
         <v>45981</v>
       </c>
-      <c r="E350" s="5">
+      <c r="E350" s="8">
         <v>0.58459490740740738</v>
       </c>
       <c r="F350" s="3">
         <v>45981</v>
       </c>
-      <c r="G350" s="5">
+      <c r="G350" s="8">
         <v>0.59501157407407412</v>
       </c>
       <c r="H350" s="1">
@@ -14162,7 +14174,7 @@
       <c r="A351" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="B351" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C351" s="1" t="s">
@@ -14171,13 +14183,13 @@
       <c r="D351" s="3">
         <v>45981</v>
       </c>
-      <c r="E351" s="5">
+      <c r="E351" s="8">
         <v>0.59559027777777773</v>
       </c>
       <c r="F351" s="3">
         <v>45981</v>
       </c>
-      <c r="G351" s="5">
+      <c r="G351" s="8">
         <v>0.60600694444444447</v>
       </c>
       <c r="H351" s="1">
@@ -14201,7 +14213,7 @@
       <c r="A352" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="B352" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C352" s="1" t="s">
@@ -14210,13 +14222,13 @@
       <c r="D352" s="3">
         <v>45981</v>
       </c>
-      <c r="E352" s="5">
+      <c r="E352" s="8">
         <v>0.60658564814814819</v>
       </c>
       <c r="F352" s="3">
         <v>45981</v>
       </c>
-      <c r="G352" s="5">
+      <c r="G352" s="8">
         <v>0.62741898148148145</v>
       </c>
       <c r="H352" s="1">
@@ -14240,7 +14252,7 @@
       <c r="A353" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="B353" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -14249,13 +14261,13 @@
       <c r="D353" s="3">
         <v>45981</v>
       </c>
-      <c r="E353" s="5">
+      <c r="E353" s="8">
         <v>0.62800925925925921</v>
       </c>
       <c r="F353" s="3">
         <v>45981</v>
       </c>
-      <c r="G353" s="5">
+      <c r="G353" s="8">
         <v>0.64884259259259258</v>
       </c>
       <c r="H353" s="1">
@@ -14279,7 +14291,7 @@
       <c r="A354" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="B354" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C354" s="1" t="s">
@@ -14288,13 +14300,13 @@
       <c r="D354" s="3">
         <v>45981</v>
       </c>
-      <c r="E354" s="5">
+      <c r="E354" s="8">
         <v>0.6494212962962963</v>
       </c>
       <c r="F354" s="3">
         <v>45981</v>
       </c>
-      <c r="G354" s="5">
+      <c r="G354" s="8">
         <v>0.65983796296296293</v>
       </c>
       <c r="H354" s="1">
@@ -14318,7 +14330,7 @@
       <c r="A355" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="B355" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C355" s="1" t="s">
@@ -14327,13 +14339,13 @@
       <c r="D355" s="3">
         <v>45981</v>
       </c>
-      <c r="E355" s="5">
+      <c r="E355" s="8">
         <v>0.66041666666666665</v>
       </c>
       <c r="F355" s="3">
         <v>45981</v>
       </c>
-      <c r="G355" s="5">
+      <c r="G355" s="8">
         <v>0.67083333333333328</v>
       </c>
       <c r="H355" s="1">
@@ -14357,7 +14369,7 @@
       <c r="A356" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="B356" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C356" s="1" t="s">
@@ -14366,13 +14378,13 @@
       <c r="D356" s="3">
         <v>45981</v>
       </c>
-      <c r="E356" s="5">
+      <c r="E356" s="8">
         <v>0.67140046296296296</v>
       </c>
       <c r="F356" s="3">
         <v>45981</v>
       </c>
-      <c r="G356" s="5">
+      <c r="G356" s="8">
         <v>0.69223379629629633</v>
       </c>
       <c r="H356" s="1">
@@ -14396,7 +14408,7 @@
       <c r="A357" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="B357" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C357" s="1" t="s">
@@ -14405,13 +14417,13 @@
       <c r="D357" s="3">
         <v>45981</v>
       </c>
-      <c r="E357" s="5">
+      <c r="E357" s="8">
         <v>0.84987268518518522</v>
       </c>
       <c r="F357" s="3">
         <v>45981</v>
       </c>
-      <c r="G357" s="5">
+      <c r="G357" s="8">
         <v>0.85334490740740743</v>
       </c>
       <c r="H357" s="1">
@@ -14435,7 +14447,7 @@
       <c r="A358" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="B358" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C358" s="1" t="s">
@@ -14444,13 +14456,13 @@
       <c r="D358" s="3">
         <v>45981</v>
       </c>
-      <c r="E358" s="5">
+      <c r="E358" s="8">
         <v>0.85365740740740736</v>
       </c>
       <c r="F358" s="3">
         <v>45981</v>
       </c>
-      <c r="G358" s="5">
+      <c r="G358" s="8">
         <v>0.8606018518518519</v>
       </c>
       <c r="H358" s="1">
@@ -14474,7 +14486,7 @@
       <c r="A359" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="B359" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C359" s="1" t="s">
@@ -14483,13 +14495,13 @@
       <c r="D359" s="3">
         <v>45981</v>
       </c>
-      <c r="E359" s="5">
+      <c r="E359" s="8">
         <v>0.9334837962962963</v>
       </c>
       <c r="F359" s="3">
         <v>45981</v>
       </c>
-      <c r="G359" s="5">
+      <c r="G359" s="8">
         <v>0.95431712962962967</v>
       </c>
       <c r="H359" s="1">
@@ -14513,7 +14525,7 @@
       <c r="A360" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="B360" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C360" s="1" t="s">
@@ -14522,13 +14534,13 @@
       <c r="D360" s="3">
         <v>45981</v>
       </c>
-      <c r="E360" s="5">
+      <c r="E360" s="8">
         <v>0.95574074074074078</v>
       </c>
       <c r="F360" s="3">
         <v>45981</v>
       </c>
-      <c r="G360" s="5">
+      <c r="G360" s="8">
         <v>0.97657407407407404</v>
       </c>
       <c r="H360" s="1">
@@ -14552,7 +14564,7 @@
       <c r="A361" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="B361" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C361" s="1" t="s">
@@ -14561,13 +14573,13 @@
       <c r="D361" s="3">
         <v>45981</v>
       </c>
-      <c r="E361" s="5">
+      <c r="E361" s="8">
         <v>0.98745370370370367</v>
       </c>
       <c r="F361" s="3">
         <v>45981</v>
       </c>
-      <c r="G361" s="5">
+      <c r="G361" s="8">
         <v>0.9943981481481482</v>
       </c>
       <c r="H361" s="1">
@@ -14591,7 +14603,7 @@
       <c r="A362" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="B362" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C362" s="1" t="s">
@@ -14600,13 +14612,13 @@
       <c r="D362" s="3">
         <v>45981</v>
       </c>
-      <c r="E362" s="5">
+      <c r="E362" s="8">
         <v>0.99721064814814819</v>
       </c>
       <c r="F362" s="3">
         <v>45982</v>
       </c>
-      <c r="G362" s="5">
+      <c r="G362" s="8">
         <v>6.8287037037037036E-4</v>
       </c>
       <c r="H362" s="1">
@@ -14630,7 +14642,7 @@
       <c r="A363" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="B363" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C363" s="1" t="s">
@@ -14639,13 +14651,13 @@
       <c r="D363" s="3">
         <v>45982</v>
       </c>
-      <c r="E363" s="5">
+      <c r="E363" s="8">
         <v>9.9537037037037042E-4</v>
       </c>
       <c r="F363" s="3">
         <v>45982</v>
       </c>
-      <c r="G363" s="5">
+      <c r="G363" s="8">
         <v>7.9398148148148145E-3</v>
       </c>
       <c r="H363" s="1">
@@ -14669,7 +14681,7 @@
       <c r="A364" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="B364" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C364" s="1" t="s">
@@ -14678,13 +14690,13 @@
       <c r="D364" s="3">
         <v>45982</v>
       </c>
-      <c r="E364" s="5">
+      <c r="E364" s="8">
         <v>8.3449074074074068E-3</v>
       </c>
       <c r="F364" s="3">
         <v>45982</v>
       </c>
-      <c r="G364" s="5">
+      <c r="G364" s="8">
         <v>1.1817129629629629E-2</v>
       </c>
       <c r="H364" s="1">
@@ -14708,7 +14720,7 @@
       <c r="A365" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="B365" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C365" s="1" t="s">
@@ -14717,13 +14729,13 @@
       <c r="D365" s="3">
         <v>45982</v>
       </c>
-      <c r="E365" s="5">
+      <c r="E365" s="8">
         <v>1.2013888888888888E-2</v>
       </c>
       <c r="F365" s="3">
         <v>45982</v>
       </c>
-      <c r="G365" s="5">
+      <c r="G365" s="8">
         <v>1.8958333333333334E-2</v>
       </c>
       <c r="H365" s="1">
@@ -14747,7 +14759,7 @@
       <c r="A366" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="B366" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C366" s="1" t="s">
@@ -14756,13 +14768,13 @@
       <c r="D366" s="3">
         <v>45982</v>
       </c>
-      <c r="E366" s="5">
+      <c r="E366" s="8">
         <v>1.4039351851851851E-2</v>
       </c>
       <c r="F366" s="3">
         <v>45982</v>
       </c>
-      <c r="G366" s="5">
+      <c r="G366" s="8">
         <v>2.0983796296296296E-2</v>
       </c>
       <c r="H366" s="1">
@@ -14786,7 +14798,7 @@
       <c r="A367" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B367" s="1" t="s">
+      <c r="B367" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C367" s="1" t="s">
@@ -14795,13 +14807,13 @@
       <c r="D367" s="3">
         <v>45982</v>
       </c>
-      <c r="E367" s="5">
+      <c r="E367" s="8">
         <v>2.1342592592592594E-2</v>
       </c>
       <c r="F367" s="3">
         <v>45982</v>
       </c>
-      <c r="G367" s="5">
+      <c r="G367" s="8">
         <v>4.2175925925925929E-2</v>
       </c>
       <c r="H367" s="1">
@@ -14825,7 +14837,7 @@
       <c r="A368" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="B368" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C368" s="1" t="s">
@@ -14834,13 +14846,13 @@
       <c r="D368" s="3">
         <v>45982</v>
       </c>
-      <c r="E368" s="5">
+      <c r="E368" s="8">
         <v>4.2627314814814812E-2</v>
       </c>
       <c r="F368" s="3">
         <v>45982</v>
       </c>
-      <c r="G368" s="5">
+      <c r="G368" s="8">
         <v>4.6099537037037036E-2</v>
       </c>
       <c r="H368" s="1">
@@ -14864,7 +14876,7 @@
       <c r="A369" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="B369" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C369" s="1" t="s">
@@ -14873,13 +14885,13 @@
       <c r="D369" s="3">
         <v>45982</v>
       </c>
-      <c r="E369" s="5">
+      <c r="E369" s="8">
         <v>4.6412037037037036E-2</v>
       </c>
       <c r="F369" s="3">
         <v>45982</v>
       </c>
-      <c r="G369" s="5">
+      <c r="G369" s="8">
         <v>4.988425925925926E-2</v>
       </c>
       <c r="H369" s="1">
@@ -14903,7 +14915,7 @@
       <c r="A370" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="B370" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C370" s="1" t="s">
@@ -14912,13 +14924,13 @@
       <c r="D370" s="3">
         <v>45982</v>
       </c>
-      <c r="E370" s="5">
+      <c r="E370" s="8">
         <v>5.0243055555555555E-2</v>
       </c>
       <c r="F370" s="3">
         <v>45982</v>
       </c>
-      <c r="G370" s="5">
+      <c r="G370" s="8">
         <v>5.3715277777777778E-2</v>
       </c>
       <c r="H370" s="1">
@@ -14942,7 +14954,7 @@
       <c r="A371" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="B371" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C371" s="1" t="s">
@@ -14951,13 +14963,13 @@
       <c r="D371" s="3">
         <v>45982</v>
       </c>
-      <c r="E371" s="5">
+      <c r="E371" s="8">
         <v>5.4074074074074073E-2</v>
       </c>
       <c r="F371" s="3">
         <v>45982</v>
       </c>
-      <c r="G371" s="5">
+      <c r="G371" s="8">
         <v>5.7546296296296297E-2</v>
       </c>
       <c r="H371" s="1">
@@ -14973,6 +14985,138 @@
         <v>-1</v>
       </c>
       <c r="L371">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>7</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C372" t="s">
+        <v>5</v>
+      </c>
+      <c r="D372" s="6">
+        <v>45982</v>
+      </c>
+      <c r="E372" s="7">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="F372" s="6">
+        <v>45982</v>
+      </c>
+      <c r="G372" s="7">
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="J372">
+        <v>1</v>
+      </c>
+      <c r="K372">
+        <v>-1</v>
+      </c>
+      <c r="L372">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>7</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C373" t="s">
+        <v>5</v>
+      </c>
+      <c r="D373" s="6">
+        <v>45982</v>
+      </c>
+      <c r="E373" s="7">
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="F373" s="6">
+        <v>45982</v>
+      </c>
+      <c r="G373" s="7">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="J373">
+        <v>1</v>
+      </c>
+      <c r="K373">
+        <v>0.83</v>
+      </c>
+      <c r="L373">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>6</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C374" t="s">
+        <v>4</v>
+      </c>
+      <c r="D374" s="6">
+        <v>45982</v>
+      </c>
+      <c r="E374" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F374" s="6">
+        <v>45982</v>
+      </c>
+      <c r="G374" s="7">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="J374">
+        <v>1</v>
+      </c>
+      <c r="K374">
+        <v>0.92</v>
+      </c>
+      <c r="L374">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>7</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C375" t="s">
+        <v>28</v>
+      </c>
+      <c r="D375" s="6">
+        <v>45982</v>
+      </c>
+      <c r="E375" s="7">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="F375" s="6">
+        <v>45982</v>
+      </c>
+      <c r="G375" s="7">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="J375">
+        <v>1</v>
+      </c>
+      <c r="K375">
+        <v>-1</v>
+      </c>
+      <c r="L375">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -14981,7 +15125,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J101">
     <sortCondition ref="D2:D101"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C371">
+  <conditionalFormatting sqref="C2:C375">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$K2&gt;0</formula>
     </cfRule>
